--- a/te st/list.xlsx
+++ b/te st/list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="テスト項目" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="61">
   <si>
     <t>出力形式</t>
     <rPh sb="0" eb="4">
@@ -310,14 +310,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">--with-text </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">--no-with-text </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">--no-plain-text </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -382,6 +374,14 @@
     <rPh sb="15" eb="17">
       <t>バアイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">--with-text --delete-display-size </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">--no-with-text  --delete-display-size </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -511,8 +511,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="139">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -666,7 +674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="139">
+  <cellStyles count="147">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -736,6 +744,10 @@
     <cellStyle name="ハイパーリンク" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -806,6 +818,10 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="146" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1134,11 +1150,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H25" sqref="H25:H34"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -1180,7 +1196,7 @@
         <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1205,18 +1221,18 @@
       </c>
       <c r="G2" s="2" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C2, options!A:B, 2, FALSE) &amp; VLOOKUP(D2, options!A:B, 2, FALSE) &amp; VLOOKUP(E2, options!A:B, 2, FALSE) &amp; VLOOKUP(F2, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A2 &amp; "/sample." &amp; LOWER(B2) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --transparent --with-text sample.tex ./1/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --transparent --with-text --delete-display-size sample.tex ./1/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I2" t="s">
         <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A66" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A70" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1236,7 +1252,7 @@
       </c>
       <c r="G3" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C3, options!A:B, 2, FALSE) &amp; VLOOKUP(D3, options!A:B, 2, FALSE) &amp; VLOOKUP(E3, options!A:B, 2, FALSE) &amp; VLOOKUP(F3, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A3 &amp; "/sample." &amp; LOWER(B3) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --background-color CCFFCC --with-text sample.tex ./2/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --background-color CCFFCC --with-text --delete-display-size sample.tex ./2/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I3" t="s">
         <v>35</v>
@@ -1264,7 +1280,7 @@
       </c>
       <c r="G4" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C4, options!A:B, 2, FALSE) &amp; VLOOKUP(D4, options!A:B, 2, FALSE) &amp; VLOOKUP(E4, options!A:B, 2, FALSE) &amp; VLOOKUP(F4, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A4 &amp; "/sample." &amp; LOWER(B4) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --transparent --with-text sample.tex ./3/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --transparent --with-text --delete-display-size sample.tex ./3/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I4" t="s">
         <v>37</v>
@@ -1292,7 +1308,7 @@
       </c>
       <c r="G5" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C5, options!A:B, 2, FALSE) &amp; VLOOKUP(D5, options!A:B, 2, FALSE) &amp; VLOOKUP(E5, options!A:B, 2, FALSE) &amp; VLOOKUP(F5, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A5 &amp; "/sample." &amp; LOWER(B5) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --with-text sample.tex ./4/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --with-text --delete-display-size sample.tex ./4/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I5" t="s">
         <v>36</v>
@@ -1320,7 +1336,7 @@
       </c>
       <c r="G6" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C6, options!A:B, 2, FALSE) &amp; VLOOKUP(D6, options!A:B, 2, FALSE) &amp; VLOOKUP(E6, options!A:B, 2, FALSE) &amp; VLOOKUP(F6, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A6 &amp; "/sample." &amp; LOWER(B6) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --transparent --with-text sample.tex ./5/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --merge-output-files --transparent --with-text --delete-display-size sample.tex ./5/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I6" t="s">
         <v>40</v>
@@ -1348,10 +1364,10 @@
       </c>
       <c r="G7" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C7, options!A:B, 2, FALSE) &amp; VLOOKUP(D7, options!A:B, 2, FALSE) &amp; VLOOKUP(E7, options!A:B, 2, FALSE) &amp; VLOOKUP(F7, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A7 &amp; "/sample." &amp; LOWER(B7) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --background-color CCFFCC --with-text sample.tex ./6/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --merge-output-files --background-color CCFFCC --with-text --delete-display-size sample.tex ./6/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1376,7 +1392,7 @@
       </c>
       <c r="G8" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C8, options!A:B, 2, FALSE) &amp; VLOOKUP(D8, options!A:B, 2, FALSE) &amp; VLOOKUP(E8, options!A:B, 2, FALSE) &amp; VLOOKUP(F8, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A8 &amp; "/sample." &amp; LOWER(B8) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --margins 10 --unit bp --transparent --with-text sample.tex ./7/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --merge-output-files --margins 10 --unit bp --transparent --with-text --delete-display-size sample.tex ./7/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1401,7 +1417,7 @@
       </c>
       <c r="G9" s="5" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C9, options!A:B, 2, FALSE) &amp; VLOOKUP(D9, options!A:B, 2, FALSE) &amp; VLOOKUP(E9, options!A:B, 2, FALSE) &amp; VLOOKUP(F9, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A9 &amp; "/sample." &amp; LOWER(B9) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --margins 10 --unit bp --background-color CCFFCC --with-text sample.tex ./8/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --merge-output-files --margins 10 --unit bp --background-color CCFFCC --with-text --delete-display-size sample.tex ./8/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1426,7 +1442,7 @@
       </c>
       <c r="G10" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C10, options!A:B, 2, FALSE) &amp; VLOOKUP(D10, options!A:B, 2, FALSE) &amp; VLOOKUP(E10, options!A:B, 2, FALSE) &amp; VLOOKUP(F10, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A10 &amp; "/sample." &amp; LOWER(B10) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --transparent --no-with-text sample.tex ./9/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --transparent --no-with-text  --delete-display-size sample.tex ./9/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1451,7 +1467,7 @@
       </c>
       <c r="G11" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C11, options!A:B, 2, FALSE) &amp; VLOOKUP(D11, options!A:B, 2, FALSE) &amp; VLOOKUP(E11, options!A:B, 2, FALSE) &amp; VLOOKUP(F11, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A11 &amp; "/sample." &amp; LOWER(B11) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --background-color CCFFCC --no-with-text sample.tex ./10/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --background-color CCFFCC --no-with-text  --delete-display-size sample.tex ./10/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1476,7 +1492,7 @@
       </c>
       <c r="G12" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C12, options!A:B, 2, FALSE) &amp; VLOOKUP(D12, options!A:B, 2, FALSE) &amp; VLOOKUP(E12, options!A:B, 2, FALSE) &amp; VLOOKUP(F12, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A12 &amp; "/sample." &amp; LOWER(B12) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --transparent --no-with-text sample.tex ./11/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --transparent --no-with-text  --delete-display-size sample.tex ./11/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1501,7 +1517,7 @@
       </c>
       <c r="G13" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C13, options!A:B, 2, FALSE) &amp; VLOOKUP(D13, options!A:B, 2, FALSE) &amp; VLOOKUP(E13, options!A:B, 2, FALSE) &amp; VLOOKUP(F13, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A13 &amp; "/sample." &amp; LOWER(B13) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-with-text sample.tex ./12/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-with-text  --delete-display-size sample.tex ./12/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1526,7 +1542,7 @@
       </c>
       <c r="G14" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C14, options!A:B, 2, FALSE) &amp; VLOOKUP(D14, options!A:B, 2, FALSE) &amp; VLOOKUP(E14, options!A:B, 2, FALSE) &amp; VLOOKUP(F14, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A14 &amp; "/sample." &amp; LOWER(B14) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --transparent --no-with-text sample.tex ./13/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --merge-output-files --transparent --no-with-text  --delete-display-size sample.tex ./13/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1551,7 +1567,7 @@
       </c>
       <c r="G15" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C15, options!A:B, 2, FALSE) &amp; VLOOKUP(D15, options!A:B, 2, FALSE) &amp; VLOOKUP(E15, options!A:B, 2, FALSE) &amp; VLOOKUP(F15, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A15 &amp; "/sample." &amp; LOWER(B15) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --background-color CCFFCC --no-with-text sample.tex ./14/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --merge-output-files --background-color CCFFCC --no-with-text  --delete-display-size sample.tex ./14/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1576,7 +1592,7 @@
       </c>
       <c r="G16" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C16, options!A:B, 2, FALSE) &amp; VLOOKUP(D16, options!A:B, 2, FALSE) &amp; VLOOKUP(E16, options!A:B, 2, FALSE) &amp; VLOOKUP(F16, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A16 &amp; "/sample." &amp; LOWER(B16) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --margins 10 --unit bp --transparent --no-with-text sample.tex ./15/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --merge-output-files --margins 10 --unit bp --transparent --no-with-text  --delete-display-size sample.tex ./15/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1601,7 +1617,7 @@
       </c>
       <c r="G17" s="5" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C17, options!A:B, 2, FALSE) &amp; VLOOKUP(D17, options!A:B, 2, FALSE) &amp; VLOOKUP(E17, options!A:B, 2, FALSE) &amp; VLOOKUP(F17, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A17 &amp; "/sample." &amp; LOWER(B17) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-with-text sample.tex ./16/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-with-text  --delete-display-size sample.tex ./16/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1622,11 +1638,11 @@
         <v>3</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G18" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C18, options!A:B, 2, FALSE) &amp; VLOOKUP(D18, options!A:B, 2, FALSE) &amp; VLOOKUP(E18, options!A:B, 2, FALSE) &amp; VLOOKUP(F18, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A18 &amp; "/sample." &amp; LOWER(B18) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --transparent --delete-display-size sample.tex ./17/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --transparent --with-text --delete-display-size sample.tex ./17/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1647,11 +1663,11 @@
         <v>11</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G19" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C19, options!A:B, 2, FALSE) &amp; VLOOKUP(D19, options!A:B, 2, FALSE) &amp; VLOOKUP(E19, options!A:B, 2, FALSE) &amp; VLOOKUP(F19, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A19 &amp; "/sample." &amp; LOWER(B19) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --background-color CCFFCC --delete-display-size sample.tex ./18/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --background-color CCFFCC --with-text --delete-display-size sample.tex ./18/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1672,11 +1688,11 @@
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G20" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C20, options!A:B, 2, FALSE) &amp; VLOOKUP(D20, options!A:B, 2, FALSE) &amp; VLOOKUP(E20, options!A:B, 2, FALSE) &amp; VLOOKUP(F20, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A20 &amp; "/sample." &amp; LOWER(B20) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --transparent --delete-display-size sample.tex ./19/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --transparent --with-text --delete-display-size sample.tex ./19/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1697,11 +1713,11 @@
         <v>11</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G21" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C21, options!A:B, 2, FALSE) &amp; VLOOKUP(D21, options!A:B, 2, FALSE) &amp; VLOOKUP(E21, options!A:B, 2, FALSE) &amp; VLOOKUP(F21, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A21 &amp; "/sample." &amp; LOWER(B21) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --delete-display-size sample.tex ./20/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --with-text --delete-display-size sample.tex ./20/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1713,7 +1729,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>30</v>
@@ -1722,13 +1738,12 @@
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G22" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C22, options!A:B, 2, FALSE) &amp; VLOOKUP(D22, options!A:B, 2, FALSE) &amp; VLOOKUP(E22, options!A:B, 2, FALSE) &amp; VLOOKUP(F22, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A22 &amp; "/sample." &amp; LOWER(B22) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --transparent --delete-display-size sample.tex ./21/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
-      <c r="H22" s="10"/>
+        <v>./tex2img --no-merge-output-files --transparent --no-with-text  --delete-display-size sample.tex ./21/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3">
@@ -1739,7 +1754,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>30</v>
@@ -1748,13 +1763,12 @@
         <v>11</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G23" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C23, options!A:B, 2, FALSE) &amp; VLOOKUP(D23, options!A:B, 2, FALSE) &amp; VLOOKUP(E23, options!A:B, 2, FALSE) &amp; VLOOKUP(F23, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A23 &amp; "/sample." &amp; LOWER(B23) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --background-color CCFFCC --delete-display-size sample.tex ./22/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
-      <c r="H23" s="10"/>
+        <v>./tex2img --no-merge-output-files --background-color CCFFCC --no-with-text  --delete-display-size sample.tex ./22/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3">
@@ -1765,7 +1779,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>31</v>
@@ -1774,66 +1788,63 @@
         <v>2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G24" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C24, options!A:B, 2, FALSE) &amp; VLOOKUP(D24, options!A:B, 2, FALSE) &amp; VLOOKUP(E24, options!A:B, 2, FALSE) &amp; VLOOKUP(F24, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A24 &amp; "/sample." &amp; LOWER(B24) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --transparent --delete-display-size sample.tex ./23/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
-      <c r="H24" s="10"/>
+        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --transparent --no-with-text  --delete-display-size sample.tex ./23/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="5" t="str">
+      <c r="C25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C25, options!A:B, 2, FALSE) &amp; VLOOKUP(D25, options!A:B, 2, FALSE) &amp; VLOOKUP(E25, options!A:B, 2, FALSE) &amp; VLOOKUP(F25, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A25 &amp; "/sample." &amp; LOWER(B25) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --background-color CCFFCC --delete-display-size sample.tex ./24/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
-      <c r="H25" s="10"/>
+        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-with-text  --delete-display-size sample.tex ./24/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="2" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>19</v>
+      <c r="F26" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G26" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C26, options!A:B, 2, FALSE) &amp; VLOOKUP(D26, options!A:B, 2, FALSE) &amp; VLOOKUP(E26, options!A:B, 2, FALSE) &amp; VLOOKUP(F26, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A26 &amp; "/sample." &amp; LOWER(B26) &amp; K$2</f>
-        <v>./tex2img --transparent --no-plain-text sample.tex ./25/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
-      <c r="H26" s="11"/>
+        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --transparent --delete-display-size sample.tex ./25/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3">
@@ -1841,11 +1852,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="3" t="str">
-        <f>""</f>
-        <v/>
+        <v>4</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>30</v>
@@ -1854,13 +1864,13 @@
         <v>11</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G27" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C27, options!A:B, 2, FALSE) &amp; VLOOKUP(D27, options!A:B, 2, FALSE) &amp; VLOOKUP(E27, options!A:B, 2, FALSE) &amp; VLOOKUP(F27, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A27 &amp; "/sample." &amp; LOWER(B27) &amp; K$2</f>
-        <v>./tex2img --background-color CCFFCC --no-plain-text sample.tex ./26/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
-      <c r="H27" s="11"/>
+        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --background-color CCFFCC --delete-display-size sample.tex ./26/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3">
@@ -1868,11 +1878,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="3" t="str">
-        <f>""</f>
-        <v/>
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>31</v>
@@ -1881,67 +1890,66 @@
         <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G28" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C28, options!A:B, 2, FALSE) &amp; VLOOKUP(D28, options!A:B, 2, FALSE) &amp; VLOOKUP(E28, options!A:B, 2, FALSE) &amp; VLOOKUP(F28, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A28 &amp; "/sample." &amp; LOWER(B28) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp --transparent --no-plain-text sample.tex ./27/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
-      <c r="H28" s="11"/>
+        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --transparent --delete-display-size sample.tex ./27/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="3">
+      <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="3" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="3" t="str">
+      <c r="B29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="5" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C29, options!A:B, 2, FALSE) &amp; VLOOKUP(D29, options!A:B, 2, FALSE) &amp; VLOOKUP(E29, options!A:B, 2, FALSE) &amp; VLOOKUP(F29, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A29 &amp; "/sample." &amp; LOWER(B29) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp --background-color CCFFCC --no-plain-text sample.tex ./28/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
-      <c r="H29" s="11"/>
+        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --background-color CCFFCC --delete-display-size sample.tex ./28/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="3" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="C30" s="2" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>20</v>
+      <c r="F30" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G30" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C30, options!A:B, 2, FALSE) &amp; VLOOKUP(D30, options!A:B, 2, FALSE) &amp; VLOOKUP(E30, options!A:B, 2, FALSE) &amp; VLOOKUP(F30, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A30 &amp; "/sample." &amp; LOWER(B30) &amp; K$2</f>
-        <v>./tex2img --transparent --plain-text sample.tex ./29/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
-      <c r="H30" s="10"/>
+        <v>./tex2img --transparent --no-plain-text sample.tex ./29/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3">
@@ -1962,11 +1970,11 @@
         <v>11</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G31" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C31, options!A:B, 2, FALSE) &amp; VLOOKUP(D31, options!A:B, 2, FALSE) &amp; VLOOKUP(E31, options!A:B, 2, FALSE) &amp; VLOOKUP(F31, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A31 &amp; "/sample." &amp; LOWER(B31) &amp; K$2</f>
-        <v>./tex2img --background-color CCFFCC --plain-text sample.tex ./30/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --background-color CCFFCC --no-plain-text sample.tex ./30/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="H31" s="11"/>
     </row>
@@ -1989,66 +1997,67 @@
         <v>2</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G32" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C32, options!A:B, 2, FALSE) &amp; VLOOKUP(D32, options!A:B, 2, FALSE) &amp; VLOOKUP(E32, options!A:B, 2, FALSE) &amp; VLOOKUP(F32, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A32 &amp; "/sample." &amp; LOWER(B32) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp --transparent --plain-text sample.tex ./31/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
+        <v>./tex2img --margins 10 --unit bp --transparent --no-plain-text sample.tex ./31/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="5" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="5" t="str">
+      <c r="C33" s="3" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C33, options!A:B, 2, FALSE) &amp; VLOOKUP(D33, options!A:B, 2, FALSE) &amp; VLOOKUP(E33, options!A:B, 2, FALSE) &amp; VLOOKUP(F33, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A33 &amp; "/sample." &amp; LOWER(B33) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp --background-color CCFFCC --plain-text sample.tex ./32/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
-      <c r="H33" s="10"/>
+        <v>./tex2img --margins 10 --unit bp --background-color CCFFCC --no-plain-text sample.tex ./32/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
+      <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="2" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="B34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="3" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="2" t="str">
-        <f>""</f>
-        <v/>
+      <c r="F34" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="G34" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C34, options!A:B, 2, FALSE) &amp; VLOOKUP(D34, options!A:B, 2, FALSE) &amp; VLOOKUP(E34, options!A:B, 2, FALSE) &amp; VLOOKUP(F34, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A34 &amp; "/sample." &amp; LOWER(B34) &amp; K$2</f>
-        <v>./tex2img --transparent sample.tex ./33/sample.emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
+        <v>./tex2img --transparent --plain-text sample.tex ./33/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3">
@@ -2056,7 +2065,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C35" s="3" t="str">
         <f>""</f>
@@ -2068,14 +2077,14 @@
       <c r="E35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="3" t="str">
-        <f>""</f>
-        <v/>
+      <c r="F35" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="G35" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C35, options!A:B, 2, FALSE) &amp; VLOOKUP(D35, options!A:B, 2, FALSE) &amp; VLOOKUP(E35, options!A:B, 2, FALSE) &amp; VLOOKUP(F35, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A35 &amp; "/sample." &amp; LOWER(B35) &amp; K$2</f>
-        <v>./tex2img --background-color CCFFCC sample.tex ./34/sample.emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
+        <v>./tex2img --background-color CCFFCC --plain-text sample.tex ./34/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3">
@@ -2083,7 +2092,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C36" s="3" t="str">
         <f>""</f>
@@ -2095,13 +2104,12 @@
       <c r="E36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="3" t="str">
-        <f>""</f>
-        <v/>
+      <c r="F36" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="G36" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C36, options!A:B, 2, FALSE) &amp; VLOOKUP(D36, options!A:B, 2, FALSE) &amp; VLOOKUP(E36, options!A:B, 2, FALSE) &amp; VLOOKUP(F36, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A36 &amp; "/sample." &amp; LOWER(B36) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp --transparent sample.tex ./35/sample.emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --margins 10 --unit bp --transparent --plain-text sample.tex ./35/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2110,7 +2118,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C37" s="5" t="str">
         <f>""</f>
@@ -2122,14 +2130,14 @@
       <c r="E37" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="5" t="str">
-        <f>""</f>
-        <v/>
+      <c r="F37" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="G37" s="5" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C37, options!A:B, 2, FALSE) &amp; VLOOKUP(D37, options!A:B, 2, FALSE) &amp; VLOOKUP(E37, options!A:B, 2, FALSE) &amp; VLOOKUP(F37, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A37 &amp; "/sample." &amp; LOWER(B37) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp --background-color CCFFCC sample.tex ./36/sample.emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
+        <v>./tex2img --margins 10 --unit bp --background-color CCFFCC --plain-text sample.tex ./36/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3">
@@ -2137,7 +2145,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C38" s="2" t="str">
         <f>""</f>
@@ -2155,7 +2163,7 @@
       </c>
       <c r="G38" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C38, options!A:B, 2, FALSE) &amp; VLOOKUP(D38, options!A:B, 2, FALSE) &amp; VLOOKUP(E38, options!A:B, 2, FALSE) &amp; VLOOKUP(F38, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A38 &amp; "/sample." &amp; LOWER(B38) &amp; K$2</f>
-        <v>./tex2img --transparent sample.tex ./37/sample.png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --transparent sample.tex ./37/sample.emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2164,7 +2172,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C39" s="3" t="str">
         <f>""</f>
@@ -2182,7 +2190,7 @@
       </c>
       <c r="G39" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C39, options!A:B, 2, FALSE) &amp; VLOOKUP(D39, options!A:B, 2, FALSE) &amp; VLOOKUP(E39, options!A:B, 2, FALSE) &amp; VLOOKUP(F39, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A39 &amp; "/sample." &amp; LOWER(B39) &amp; K$2</f>
-        <v>./tex2img --background-color CCFFCC sample.tex ./38/sample.png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --background-color CCFFCC sample.tex ./38/sample.emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2191,7 +2199,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C40" s="3" t="str">
         <f>""</f>
@@ -2209,7 +2217,7 @@
       </c>
       <c r="G40" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C40, options!A:B, 2, FALSE) &amp; VLOOKUP(D40, options!A:B, 2, FALSE) &amp; VLOOKUP(E40, options!A:B, 2, FALSE) &amp; VLOOKUP(F40, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A40 &amp; "/sample." &amp; LOWER(B40) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp --transparent sample.tex ./39/sample.png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --margins 10 --unit bp --transparent sample.tex ./39/sample.emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2218,7 +2226,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C41" s="5" t="str">
         <f>""</f>
@@ -2236,7 +2244,7 @@
       </c>
       <c r="G41" s="5" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C41, options!A:B, 2, FALSE) &amp; VLOOKUP(D41, options!A:B, 2, FALSE) &amp; VLOOKUP(E41, options!A:B, 2, FALSE) &amp; VLOOKUP(F41, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A41 &amp; "/sample." &amp; LOWER(B41) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp --background-color CCFFCC sample.tex ./40/sample.png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --margins 10 --unit bp --background-color CCFFCC sample.tex ./40/sample.emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2245,7 +2253,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C42" s="2" t="str">
         <f>""</f>
@@ -2254,8 +2262,8 @@
       <c r="D42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>22</v>
+      <c r="E42" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F42" s="2" t="str">
         <f>""</f>
@@ -2263,7 +2271,7 @@
       </c>
       <c r="G42" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C42, options!A:B, 2, FALSE) &amp; VLOOKUP(D42, options!A:B, 2, FALSE) &amp; VLOOKUP(E42, options!A:B, 2, FALSE) &amp; VLOOKUP(F42, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A42 &amp; "/sample." &amp; LOWER(B42) &amp; K$2</f>
-        <v>./tex2img sample.tex ./41/sample.jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --transparent sample.tex ./41/sample.png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2272,7 +2280,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C43" s="3" t="str">
         <f>""</f>
@@ -2290,7 +2298,7 @@
       </c>
       <c r="G43" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C43, options!A:B, 2, FALSE) &amp; VLOOKUP(D43, options!A:B, 2, FALSE) &amp; VLOOKUP(E43, options!A:B, 2, FALSE) &amp; VLOOKUP(F43, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A43 &amp; "/sample." &amp; LOWER(B43) &amp; K$2</f>
-        <v>./tex2img --background-color CCFFCC sample.tex ./42/sample.jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --background-color CCFFCC sample.tex ./42/sample.png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2299,7 +2307,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C44" s="3" t="str">
         <f>""</f>
@@ -2309,7 +2317,7 @@
         <v>31</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F44" s="3" t="str">
         <f>""</f>
@@ -2317,7 +2325,7 @@
       </c>
       <c r="G44" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C44, options!A:B, 2, FALSE) &amp; VLOOKUP(D44, options!A:B, 2, FALSE) &amp; VLOOKUP(E44, options!A:B, 2, FALSE) &amp; VLOOKUP(F44, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A44 &amp; "/sample." &amp; LOWER(B44) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp sample.tex ./43/sample.jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --margins 10 --unit bp --transparent sample.tex ./43/sample.png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2326,7 +2334,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C45" s="5" t="str">
         <f>""</f>
@@ -2335,7 +2343,7 @@
       <c r="D45" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="5" t="str">
@@ -2344,7 +2352,7 @@
       </c>
       <c r="G45" s="5" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C45, options!A:B, 2, FALSE) &amp; VLOOKUP(D45, options!A:B, 2, FALSE) &amp; VLOOKUP(E45, options!A:B, 2, FALSE) &amp; VLOOKUP(F45, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A45 &amp; "/sample." &amp; LOWER(B45) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp --background-color CCFFCC sample.tex ./44/sample.jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --margins 10 --unit bp --background-color CCFFCC sample.tex ./44/sample.png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2353,7 +2361,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C46" s="2" t="str">
         <f>""</f>
@@ -2371,7 +2379,7 @@
       </c>
       <c r="G46" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C46, options!A:B, 2, FALSE) &amp; VLOOKUP(D46, options!A:B, 2, FALSE) &amp; VLOOKUP(E46, options!A:B, 2, FALSE) &amp; VLOOKUP(F46, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A46 &amp; "/sample." &amp; LOWER(B46) &amp; K$2</f>
-        <v>./tex2img sample.tex ./45/sample.bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img sample.tex ./45/sample.jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2380,7 +2388,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C47" s="3" t="str">
         <f>""</f>
@@ -2398,7 +2406,7 @@
       </c>
       <c r="G47" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C47, options!A:B, 2, FALSE) &amp; VLOOKUP(D47, options!A:B, 2, FALSE) &amp; VLOOKUP(E47, options!A:B, 2, FALSE) &amp; VLOOKUP(F47, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A47 &amp; "/sample." &amp; LOWER(B47) &amp; K$2</f>
-        <v>./tex2img --background-color CCFFCC sample.tex ./46/sample.bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --background-color CCFFCC sample.tex ./46/sample.jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2407,7 +2415,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C48" s="3" t="str">
         <f>""</f>
@@ -2425,7 +2433,7 @@
       </c>
       <c r="G48" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C48, options!A:B, 2, FALSE) &amp; VLOOKUP(D48, options!A:B, 2, FALSE) &amp; VLOOKUP(E48, options!A:B, 2, FALSE) &amp; VLOOKUP(F48, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A48 &amp; "/sample." &amp; LOWER(B48) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp sample.tex ./47/sample.bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --margins 10 --unit bp sample.tex ./47/sample.jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2434,7 +2442,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C49" s="5" t="str">
         <f>""</f>
@@ -2452,7 +2460,7 @@
       </c>
       <c r="G49" s="5" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C49, options!A:B, 2, FALSE) &amp; VLOOKUP(D49, options!A:B, 2, FALSE) &amp; VLOOKUP(E49, options!A:B, 2, FALSE) &amp; VLOOKUP(F49, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A49 &amp; "/sample." &amp; LOWER(B49) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp --background-color CCFFCC sample.tex ./48/sample.bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --margins 10 --unit bp --background-color CCFFCC sample.tex ./48/sample.jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2461,23 +2469,25 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="C50" s="2" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="D50" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>25</v>
+      <c r="E50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="2" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="G50" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C50, options!A:B, 2, FALSE) &amp; VLOOKUP(D50, options!A:B, 2, FALSE) &amp; VLOOKUP(E50, options!A:B, 2, FALSE) &amp; VLOOKUP(F50, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A50 &amp; "/sample." &amp; LOWER(B50) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --transparent --no-quick sample.tex ./49/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img sample.tex ./49/sample.bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2486,10 +2496,11 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="C51" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="D51" s="3" t="s">
         <v>30</v>
@@ -2497,12 +2508,13 @@
       <c r="E51" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>25</v>
+      <c r="F51" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="G51" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C51, options!A:B, 2, FALSE) &amp; VLOOKUP(D51, options!A:B, 2, FALSE) &amp; VLOOKUP(E51, options!A:B, 2, FALSE) &amp; VLOOKUP(F51, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A51 &amp; "/sample." &amp; LOWER(B51) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --background-color CCFFCC --no-quick sample.tex ./50/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --background-color CCFFCC sample.tex ./50/sample.bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2511,48 +2523,52 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="C52" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="D52" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="F52" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="G52" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C52, options!A:B, 2, FALSE) &amp; VLOOKUP(D52, options!A:B, 2, FALSE) &amp; VLOOKUP(E52, options!A:B, 2, FALSE) &amp; VLOOKUP(F52, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A52 &amp; "/sample." &amp; LOWER(B52) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --transparent --no-quick sample.tex ./51/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --margins 10 --unit bp sample.tex ./51/sample.bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="3">
+      <c r="A53" s="5">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" s="3" t="str">
+      <c r="B53" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="5" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="5" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="G53" s="5" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C53, options!A:B, 2, FALSE) &amp; VLOOKUP(D53, options!A:B, 2, FALSE) &amp; VLOOKUP(E53, options!A:B, 2, FALSE) &amp; VLOOKUP(F53, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A53 &amp; "/sample." &amp; LOWER(B53) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick sample.tex ./52/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --margins 10 --unit bp --background-color CCFFCC sample.tex ./52/sample.bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2560,24 +2576,24 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="C54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G54" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C54, options!A:B, 2, FALSE) &amp; VLOOKUP(D54, options!A:B, 2, FALSE) &amp; VLOOKUP(E54, options!A:B, 2, FALSE) &amp; VLOOKUP(F54, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A54 &amp; "/sample." &amp; LOWER(B54) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --transparent --no-quick sample.tex ./53/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --transparent --no-quick sample.tex ./53/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2589,7 +2605,7 @@
         <v>6</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>30</v>
@@ -2602,7 +2618,7 @@
       </c>
       <c r="G55" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C55, options!A:B, 2, FALSE) &amp; VLOOKUP(D55, options!A:B, 2, FALSE) &amp; VLOOKUP(E55, options!A:B, 2, FALSE) &amp; VLOOKUP(F55, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A55 &amp; "/sample." &amp; LOWER(B55) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --background-color CCFFCC --no-quick sample.tex ./54/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --background-color CCFFCC --no-quick sample.tex ./54/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2614,7 +2630,7 @@
         <v>6</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>31</v>
@@ -2627,32 +2643,32 @@
       </c>
       <c r="G56" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C56, options!A:B, 2, FALSE) &amp; VLOOKUP(D56, options!A:B, 2, FALSE) &amp; VLOOKUP(E56, options!A:B, 2, FALSE) &amp; VLOOKUP(F56, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A56 &amp; "/sample." &amp; LOWER(B56) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --margins 10 --unit bp --transparent --no-quick sample.tex ./55/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --transparent --no-quick sample.tex ./55/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="5">
+      <c r="A57" s="3">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="5" t="s">
+      <c r="C57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G57" s="5" t="str">
+      <c r="G57" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C57, options!A:B, 2, FALSE) &amp; VLOOKUP(D57, options!A:B, 2, FALSE) &amp; VLOOKUP(E57, options!A:B, 2, FALSE) &amp; VLOOKUP(F57, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A57 &amp; "/sample." &amp; LOWER(B57) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick sample.tex ./56/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick sample.tex ./56/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2660,24 +2676,24 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="B58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G58" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C58, options!A:B, 2, FALSE) &amp; VLOOKUP(D58, options!A:B, 2, FALSE) &amp; VLOOKUP(E58, options!A:B, 2, FALSE) &amp; VLOOKUP(F58, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A58 &amp; "/sample." &amp; LOWER(B58) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --transparent --no-quick sample.tex ./57/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --merge-output-files --transparent --no-quick sample.tex ./57/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2686,10 +2702,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>30</v>
@@ -2702,7 +2718,7 @@
       </c>
       <c r="G59" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C59, options!A:B, 2, FALSE) &amp; VLOOKUP(D59, options!A:B, 2, FALSE) &amp; VLOOKUP(E59, options!A:B, 2, FALSE) &amp; VLOOKUP(F59, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A59 &amp; "/sample." &amp; LOWER(B59) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --background-color CCFFCC --no-quick sample.tex ./58/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --merge-output-files --background-color CCFFCC --no-quick sample.tex ./58/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2711,10 +2727,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>31</v>
@@ -2727,32 +2743,32 @@
       </c>
       <c r="G60" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C60, options!A:B, 2, FALSE) &amp; VLOOKUP(D60, options!A:B, 2, FALSE) &amp; VLOOKUP(E60, options!A:B, 2, FALSE) &amp; VLOOKUP(F60, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A60 &amp; "/sample." &amp; LOWER(B60) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --transparent --no-quick sample.tex ./59/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --merge-output-files --margins 10 --unit bp --transparent --no-quick sample.tex ./59/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="3">
+      <c r="A61" s="5">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="3" t="s">
+      <c r="B61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G61" s="3" t="str">
+      <c r="G61" s="5" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C61, options!A:B, 2, FALSE) &amp; VLOOKUP(D61, options!A:B, 2, FALSE) &amp; VLOOKUP(E61, options!A:B, 2, FALSE) &amp; VLOOKUP(F61, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A61 &amp; "/sample." &amp; LOWER(B61) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick sample.tex ./60/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick sample.tex ./60/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2760,24 +2776,24 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E62" s="3" t="s">
+      <c r="C62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G62" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C62, options!A:B, 2, FALSE) &amp; VLOOKUP(D62, options!A:B, 2, FALSE) &amp; VLOOKUP(E62, options!A:B, 2, FALSE) &amp; VLOOKUP(F62, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A62 &amp; "/sample." &amp; LOWER(B62) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --transparent --no-quick sample.tex ./61/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --transparent --no-quick sample.tex ./61/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2789,7 +2805,7 @@
         <v>23</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>30</v>
@@ -2802,7 +2818,7 @@
       </c>
       <c r="G63" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C63, options!A:B, 2, FALSE) &amp; VLOOKUP(D63, options!A:B, 2, FALSE) &amp; VLOOKUP(E63, options!A:B, 2, FALSE) &amp; VLOOKUP(F63, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A63 &amp; "/sample." &amp; LOWER(B63) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --background-color CCFFCC --no-quick sample.tex ./62/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --background-color CCFFCC --no-quick sample.tex ./62/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2814,7 +2830,7 @@
         <v>23</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>31</v>
@@ -2827,32 +2843,32 @@
       </c>
       <c r="G64" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C64, options!A:B, 2, FALSE) &amp; VLOOKUP(D64, options!A:B, 2, FALSE) &amp; VLOOKUP(E64, options!A:B, 2, FALSE) &amp; VLOOKUP(F64, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A64 &amp; "/sample." &amp; LOWER(B64) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --transparent --no-quick sample.tex ./63/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --transparent --no-quick sample.tex ./63/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="5">
+      <c r="A65" s="3">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="5" t="s">
+      <c r="C65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G65" s="5" t="str">
+      <c r="G65" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C65, options!A:B, 2, FALSE) &amp; VLOOKUP(D65, options!A:B, 2, FALSE) &amp; VLOOKUP(E65, options!A:B, 2, FALSE) &amp; VLOOKUP(F65, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A65 &amp; "/sample." &amp; LOWER(B65) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --background-color CCFFCC --no-quick sample.tex ./64/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick sample.tex ./64/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2860,36 +2876,36 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E66" s="2" t="s">
+      <c r="B66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>26</v>
+      <c r="F66" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="G66" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C66, options!A:B, 2, FALSE) &amp; VLOOKUP(D66, options!A:B, 2, FALSE) &amp; VLOOKUP(E66, options!A:B, 2, FALSE) &amp; VLOOKUP(F66, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A66 &amp; "/sample." &amp; LOWER(B66) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --transparent --quick sample.tex ./65/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --transparent --no-quick sample.tex ./65/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="3">
-        <f t="shared" ref="A67:A81" si="1">ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>30</v>
@@ -2898,23 +2914,23 @@
         <v>11</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G67" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C67, options!A:B, 2, FALSE) &amp; VLOOKUP(D67, options!A:B, 2, FALSE) &amp; VLOOKUP(E67, options!A:B, 2, FALSE) &amp; VLOOKUP(F67, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A67 &amp; "/sample." &amp; LOWER(B67) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --background-color CCFFCC --quick sample.tex ./66/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --background-color CCFFCC --no-quick sample.tex ./66/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>31</v>
@@ -2923,73 +2939,73 @@
         <v>2</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G68" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C68, options!A:B, 2, FALSE) &amp; VLOOKUP(D68, options!A:B, 2, FALSE) &amp; VLOOKUP(E68, options!A:B, 2, FALSE) &amp; VLOOKUP(F68, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A68 &amp; "/sample." &amp; LOWER(B68) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --transparent --quick sample.tex ./67/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --transparent --no-quick sample.tex ./67/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="3">
-        <f t="shared" si="1"/>
+      <c r="A69" s="5">
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" s="3" t="str">
+      <c r="B69" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="5" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C69, options!A:B, 2, FALSE) &amp; VLOOKUP(D69, options!A:B, 2, FALSE) &amp; VLOOKUP(E69, options!A:B, 2, FALSE) &amp; VLOOKUP(F69, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A69 &amp; "/sample." &amp; LOWER(B69) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick sample.tex ./68/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --background-color CCFFCC --no-quick sample.tex ./68/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E70" s="3" t="s">
+      <c r="C70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G70" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C70, options!A:B, 2, FALSE) &amp; VLOOKUP(D70, options!A:B, 2, FALSE) &amp; VLOOKUP(E70, options!A:B, 2, FALSE) &amp; VLOOKUP(F70, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A70 &amp; "/sample." &amp; LOWER(B70) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --transparent --quick sample.tex ./69/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --transparent --quick sample.tex ./69/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A71:A85" si="1">ROW()-1</f>
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>30</v>
@@ -3002,7 +3018,7 @@
       </c>
       <c r="G71" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C71, options!A:B, 2, FALSE) &amp; VLOOKUP(D71, options!A:B, 2, FALSE) &amp; VLOOKUP(E71, options!A:B, 2, FALSE) &amp; VLOOKUP(F71, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A71 &amp; "/sample." &amp; LOWER(B71) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --background-color CCFFCC --quick sample.tex ./70/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --background-color CCFFCC --quick sample.tex ./70/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3014,7 +3030,7 @@
         <v>6</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>31</v>
@@ -3027,32 +3043,32 @@
       </c>
       <c r="G72" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C72, options!A:B, 2, FALSE) &amp; VLOOKUP(D72, options!A:B, 2, FALSE) &amp; VLOOKUP(E72, options!A:B, 2, FALSE) &amp; VLOOKUP(F72, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A72 &amp; "/sample." &amp; LOWER(B72) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --margins 10 --unit bp --transparent --quick sample.tex ./71/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --transparent --quick sample.tex ./71/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="5">
+      <c r="A73" s="3">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="5" t="s">
+      <c r="C73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G73" s="5" t="str">
+      <c r="G73" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C73, options!A:B, 2, FALSE) &amp; VLOOKUP(D73, options!A:B, 2, FALSE) &amp; VLOOKUP(E73, options!A:B, 2, FALSE) &amp; VLOOKUP(F73, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A73 &amp; "/sample." &amp; LOWER(B73) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick sample.tex ./72/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick sample.tex ./72/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3060,24 +3076,24 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E74" s="2" t="s">
+      <c r="B74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G74" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C74, options!A:B, 2, FALSE) &amp; VLOOKUP(D74, options!A:B, 2, FALSE) &amp; VLOOKUP(E74, options!A:B, 2, FALSE) &amp; VLOOKUP(F74, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A74 &amp; "/sample." &amp; LOWER(B74) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --transparent --quick sample.tex ./73/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --merge-output-files --transparent --quick sample.tex ./73/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3086,10 +3102,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>30</v>
@@ -3102,7 +3118,7 @@
       </c>
       <c r="G75" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C75, options!A:B, 2, FALSE) &amp; VLOOKUP(D75, options!A:B, 2, FALSE) &amp; VLOOKUP(E75, options!A:B, 2, FALSE) &amp; VLOOKUP(F75, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A75 &amp; "/sample." &amp; LOWER(B75) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --background-color CCFFCC --quick sample.tex ./74/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --merge-output-files --background-color CCFFCC --quick sample.tex ./74/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3111,10 +3127,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>31</v>
@@ -3127,32 +3143,32 @@
       </c>
       <c r="G76" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C76, options!A:B, 2, FALSE) &amp; VLOOKUP(D76, options!A:B, 2, FALSE) &amp; VLOOKUP(E76, options!A:B, 2, FALSE) &amp; VLOOKUP(F76, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A76 &amp; "/sample." &amp; LOWER(B76) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --transparent --quick sample.tex ./75/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --merge-output-files --margins 10 --unit bp --transparent --quick sample.tex ./75/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="3">
+      <c r="A77" s="5">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="3" t="s">
+      <c r="B77" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G77" s="3" t="str">
+      <c r="G77" s="5" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C77, options!A:B, 2, FALSE) &amp; VLOOKUP(D77, options!A:B, 2, FALSE) &amp; VLOOKUP(E77, options!A:B, 2, FALSE) &amp; VLOOKUP(F77, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A77 &amp; "/sample." &amp; LOWER(B77) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick sample.tex ./76/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick sample.tex ./76/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3160,24 +3176,24 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E78" s="3" t="s">
+      <c r="C78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F78" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G78" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C78, options!A:B, 2, FALSE) &amp; VLOOKUP(D78, options!A:B, 2, FALSE) &amp; VLOOKUP(E78, options!A:B, 2, FALSE) &amp; VLOOKUP(F78, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A78 &amp; "/sample." &amp; LOWER(B78) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --transparent --quick sample.tex ./77/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --transparent --quick sample.tex ./77/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3189,7 +3205,7 @@
         <v>23</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>30</v>
@@ -3202,7 +3218,7 @@
       </c>
       <c r="G79" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C79, options!A:B, 2, FALSE) &amp; VLOOKUP(D79, options!A:B, 2, FALSE) &amp; VLOOKUP(E79, options!A:B, 2, FALSE) &amp; VLOOKUP(F79, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A79 &amp; "/sample." &amp; LOWER(B79) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --background-color CCFFCC --quick sample.tex ./78/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --background-color CCFFCC --quick sample.tex ./78/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3214,7 +3230,7 @@
         <v>23</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>31</v>
@@ -3227,32 +3243,132 @@
       </c>
       <c r="G80" s="3" t="str">
         <f>"./tex2img " &amp; VLOOKUP(C80, options!A:B, 2, FALSE) &amp; VLOOKUP(D80, options!A:B, 2, FALSE) &amp; VLOOKUP(E80, options!A:B, 2, FALSE) &amp; VLOOKUP(F80, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A80 &amp; "/sample." &amp; LOWER(B80) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --transparent --quick sample.tex ./79/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --transparent --quick sample.tex ./79/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="5">
+      <c r="A81" s="3">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="3" t="str">
+        <f>"./tex2img " &amp; VLOOKUP(C81, options!A:B, 2, FALSE) &amp; VLOOKUP(D81, options!A:B, 2, FALSE) &amp; VLOOKUP(E81, options!A:B, 2, FALSE) &amp; VLOOKUP(F81, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A81 &amp; "/sample." &amp; LOWER(B81) &amp; K$2</f>
+        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick sample.tex ./80/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="3">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="5" t="s">
+      <c r="D82" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G81" s="5" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C81, options!A:B, 2, FALSE) &amp; VLOOKUP(D81, options!A:B, 2, FALSE) &amp; VLOOKUP(E81, options!A:B, 2, FALSE) &amp; VLOOKUP(F81, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A81 &amp; "/sample." &amp; LOWER(B81) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --background-color CCFFCC --quick sample.tex ./80/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      <c r="G82" s="3" t="str">
+        <f>"./tex2img " &amp; VLOOKUP(C82, options!A:B, 2, FALSE) &amp; VLOOKUP(D82, options!A:B, 2, FALSE) &amp; VLOOKUP(E82, options!A:B, 2, FALSE) &amp; VLOOKUP(F82, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A82 &amp; "/sample." &amp; LOWER(B82) &amp; K$2</f>
+        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --transparent --quick sample.tex ./81/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="3">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" s="3" t="str">
+        <f>"./tex2img " &amp; VLOOKUP(C83, options!A:B, 2, FALSE) &amp; VLOOKUP(D83, options!A:B, 2, FALSE) &amp; VLOOKUP(E83, options!A:B, 2, FALSE) &amp; VLOOKUP(F83, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A83 &amp; "/sample." &amp; LOWER(B83) &amp; K$2</f>
+        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --background-color CCFFCC --quick sample.tex ./82/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="3">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" s="3" t="str">
+        <f>"./tex2img " &amp; VLOOKUP(C84, options!A:B, 2, FALSE) &amp; VLOOKUP(D84, options!A:B, 2, FALSE) &amp; VLOOKUP(E84, options!A:B, 2, FALSE) &amp; VLOOKUP(F84, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A84 &amp; "/sample." &amp; LOWER(B84) &amp; K$2</f>
+        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --transparent --quick sample.tex ./83/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="5">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="5" t="str">
+        <f>"./tex2img " &amp; VLOOKUP(C85, options!A:B, 2, FALSE) &amp; VLOOKUP(D85, options!A:B, 2, FALSE) &amp; VLOOKUP(E85, options!A:B, 2, FALSE) &amp; VLOOKUP(F85, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A85 &amp; "/sample." &amp; LOWER(B85) &amp; K$2</f>
+        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --background-color CCFFCC --quick sample.tex ./84/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
   </sheetData>
@@ -3303,7 +3419,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3311,7 +3427,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3319,7 +3435,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3327,7 +3443,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3335,7 +3451,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3343,7 +3459,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3351,7 +3467,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3369,7 +3485,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3377,7 +3493,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3385,7 +3501,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3393,7 +3509,7 @@
         <v>43</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:2">

--- a/te st/list.xlsx
+++ b/te st/list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="27320" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="テスト項目" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="67">
   <si>
     <t>出力形式</t>
     <rPh sb="0" eb="4">
@@ -382,6 +382,33 @@
   </si>
   <si>
     <t xml:space="preserve">--no-with-text  --delete-display-size </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベースコマンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">./tex2img --workingdir current </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"sam ple.tex"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力ファイル</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"sam ple"</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -511,8 +538,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="147">
+  <cellStyleXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -674,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="147">
+  <cellStyles count="153">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -748,6 +781,9 @@
     <cellStyle name="ハイパーリンク" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -822,6 +858,9 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="152" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1150,11 +1189,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F24" sqref="F24"/>
+      <selection pane="topRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -1164,13 +1203,13 @@
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="161.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="179.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
     <col min="9" max="9" width="30.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1196,10 +1235,13 @@
         <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <f>ROW()-1</f>
         <v>1</v>
@@ -1220,17 +1262,20 @@
         <v>13</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C2, options!A:B, 2, FALSE) &amp; VLOOKUP(D2, options!A:B, 2, FALSE) &amp; VLOOKUP(E2, options!A:B, 2, FALSE) &amp; VLOOKUP(F2, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A2 &amp; "/sample." &amp; LOWER(B2) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --transparent --with-text --delete-display-size sample.tex ./1/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C2, options!A:B, 2, FALSE) &amp; VLOOKUP(D2, options!A:B, 2, FALSE) &amp; VLOOKUP(E2, options!A:B, 2, FALSE) &amp; VLOOKUP(F2, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A2 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B2) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --transparent --with-text --delete-display-size "sam ple.tex" ./1/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I2" t="s">
         <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>63</v>
+      </c>
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A70" si="0">ROW()-1</f>
         <v>2</v>
@@ -1251,14 +1296,20 @@
         <v>13</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C3, options!A:B, 2, FALSE) &amp; VLOOKUP(D3, options!A:B, 2, FALSE) &amp; VLOOKUP(E3, options!A:B, 2, FALSE) &amp; VLOOKUP(F3, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A3 &amp; "/sample." &amp; LOWER(B3) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --background-color CCFFCC --with-text --delete-display-size sample.tex ./2/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C3, options!A:B, 2, FALSE) &amp; VLOOKUP(D3, options!A:B, 2, FALSE) &amp; VLOOKUP(E3, options!A:B, 2, FALSE) &amp; VLOOKUP(F3, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A3 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B3) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --background-color CCFFCC --with-text --delete-display-size "sam ple.tex" ./2/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1279,14 +1330,20 @@
         <v>13</v>
       </c>
       <c r="G4" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C4, options!A:B, 2, FALSE) &amp; VLOOKUP(D4, options!A:B, 2, FALSE) &amp; VLOOKUP(E4, options!A:B, 2, FALSE) &amp; VLOOKUP(F4, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A4 &amp; "/sample." &amp; LOWER(B4) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --transparent --with-text --delete-display-size sample.tex ./3/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C4, options!A:B, 2, FALSE) &amp; VLOOKUP(D4, options!A:B, 2, FALSE) &amp; VLOOKUP(E4, options!A:B, 2, FALSE) &amp; VLOOKUP(F4, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A4 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B4) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --with-text --delete-display-size "sam ple.tex" ./3/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1307,14 +1364,14 @@
         <v>13</v>
       </c>
       <c r="G5" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C5, options!A:B, 2, FALSE) &amp; VLOOKUP(D5, options!A:B, 2, FALSE) &amp; VLOOKUP(E5, options!A:B, 2, FALSE) &amp; VLOOKUP(F5, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A5 &amp; "/sample." &amp; LOWER(B5) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --with-text --delete-display-size sample.tex ./4/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C5, options!A:B, 2, FALSE) &amp; VLOOKUP(D5, options!A:B, 2, FALSE) &amp; VLOOKUP(E5, options!A:B, 2, FALSE) &amp; VLOOKUP(F5, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A5 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B5) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --with-text --delete-display-size "sam ple.tex" ./4/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1335,14 +1392,14 @@
         <v>13</v>
       </c>
       <c r="G6" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C6, options!A:B, 2, FALSE) &amp; VLOOKUP(D6, options!A:B, 2, FALSE) &amp; VLOOKUP(E6, options!A:B, 2, FALSE) &amp; VLOOKUP(F6, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A6 &amp; "/sample." &amp; LOWER(B6) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --transparent --with-text --delete-display-size sample.tex ./5/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C6, options!A:B, 2, FALSE) &amp; VLOOKUP(D6, options!A:B, 2, FALSE) &amp; VLOOKUP(E6, options!A:B, 2, FALSE) &amp; VLOOKUP(F6, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A6 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B6) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --transparent --with-text --delete-display-size "sam ple.tex" ./5/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1363,14 +1420,14 @@
         <v>13</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C7, options!A:B, 2, FALSE) &amp; VLOOKUP(D7, options!A:B, 2, FALSE) &amp; VLOOKUP(E7, options!A:B, 2, FALSE) &amp; VLOOKUP(F7, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A7 &amp; "/sample." &amp; LOWER(B7) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --background-color CCFFCC --with-text --delete-display-size sample.tex ./6/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C7, options!A:B, 2, FALSE) &amp; VLOOKUP(D7, options!A:B, 2, FALSE) &amp; VLOOKUP(E7, options!A:B, 2, FALSE) &amp; VLOOKUP(F7, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A7 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B7) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --background-color CCFFCC --with-text --delete-display-size "sam ple.tex" ./6/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1391,11 +1448,11 @@
         <v>13</v>
       </c>
       <c r="G8" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C8, options!A:B, 2, FALSE) &amp; VLOOKUP(D8, options!A:B, 2, FALSE) &amp; VLOOKUP(E8, options!A:B, 2, FALSE) &amp; VLOOKUP(F8, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A8 &amp; "/sample." &amp; LOWER(B8) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --margins 10 --unit bp --transparent --with-text --delete-display-size sample.tex ./7/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <f>L$1 &amp; VLOOKUP(C8, options!A:B, 2, FALSE) &amp; VLOOKUP(D8, options!A:B, 2, FALSE) &amp; VLOOKUP(E8, options!A:B, 2, FALSE) &amp; VLOOKUP(F8, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A8 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B8) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --margins 10 --unit bp --transparent --with-text --delete-display-size "sam ple.tex" ./7/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1416,11 +1473,11 @@
         <v>13</v>
       </c>
       <c r="G9" s="5" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C9, options!A:B, 2, FALSE) &amp; VLOOKUP(D9, options!A:B, 2, FALSE) &amp; VLOOKUP(E9, options!A:B, 2, FALSE) &amp; VLOOKUP(F9, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A9 &amp; "/sample." &amp; LOWER(B9) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --margins 10 --unit bp --background-color CCFFCC --with-text --delete-display-size sample.tex ./8/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <f>L$1 &amp; VLOOKUP(C9, options!A:B, 2, FALSE) &amp; VLOOKUP(D9, options!A:B, 2, FALSE) &amp; VLOOKUP(E9, options!A:B, 2, FALSE) &amp; VLOOKUP(F9, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A9 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B9) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --margins 10 --unit bp --background-color CCFFCC --with-text --delete-display-size "sam ple.tex" ./8/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1440,12 +1497,12 @@
       <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C10, options!A:B, 2, FALSE) &amp; VLOOKUP(D10, options!A:B, 2, FALSE) &amp; VLOOKUP(E10, options!A:B, 2, FALSE) &amp; VLOOKUP(F10, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A10 &amp; "/sample." &amp; LOWER(B10) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --transparent --no-with-text  --delete-display-size sample.tex ./9/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="G10" s="2" t="str">
+        <f>L$1 &amp; VLOOKUP(C10, options!A:B, 2, FALSE) &amp; VLOOKUP(D10, options!A:B, 2, FALSE) &amp; VLOOKUP(E10, options!A:B, 2, FALSE) &amp; VLOOKUP(F10, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A10 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B10) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --transparent --no-with-text  --delete-display-size "sam ple.tex" ./9/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1466,11 +1523,11 @@
         <v>15</v>
       </c>
       <c r="G11" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C11, options!A:B, 2, FALSE) &amp; VLOOKUP(D11, options!A:B, 2, FALSE) &amp; VLOOKUP(E11, options!A:B, 2, FALSE) &amp; VLOOKUP(F11, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A11 &amp; "/sample." &amp; LOWER(B11) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --background-color CCFFCC --no-with-text  --delete-display-size sample.tex ./10/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <f>L$1 &amp; VLOOKUP(C11, options!A:B, 2, FALSE) &amp; VLOOKUP(D11, options!A:B, 2, FALSE) &amp; VLOOKUP(E11, options!A:B, 2, FALSE) &amp; VLOOKUP(F11, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A11 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B11) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --background-color CCFFCC --no-with-text  --delete-display-size "sam ple.tex" ./10/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1491,11 +1548,11 @@
         <v>15</v>
       </c>
       <c r="G12" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C12, options!A:B, 2, FALSE) &amp; VLOOKUP(D12, options!A:B, 2, FALSE) &amp; VLOOKUP(E12, options!A:B, 2, FALSE) &amp; VLOOKUP(F12, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A12 &amp; "/sample." &amp; LOWER(B12) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --transparent --no-with-text  --delete-display-size sample.tex ./11/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <f>L$1 &amp; VLOOKUP(C12, options!A:B, 2, FALSE) &amp; VLOOKUP(D12, options!A:B, 2, FALSE) &amp; VLOOKUP(E12, options!A:B, 2, FALSE) &amp; VLOOKUP(F12, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A12 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B12) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --no-with-text  --delete-display-size "sam ple.tex" ./11/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1516,11 +1573,11 @@
         <v>15</v>
       </c>
       <c r="G13" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C13, options!A:B, 2, FALSE) &amp; VLOOKUP(D13, options!A:B, 2, FALSE) &amp; VLOOKUP(E13, options!A:B, 2, FALSE) &amp; VLOOKUP(F13, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A13 &amp; "/sample." &amp; LOWER(B13) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-with-text  --delete-display-size sample.tex ./12/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <f>L$1 &amp; VLOOKUP(C13, options!A:B, 2, FALSE) &amp; VLOOKUP(D13, options!A:B, 2, FALSE) &amp; VLOOKUP(E13, options!A:B, 2, FALSE) &amp; VLOOKUP(F13, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A13 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B13) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-with-text  --delete-display-size "sam ple.tex" ./12/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1541,11 +1598,11 @@
         <v>15</v>
       </c>
       <c r="G14" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C14, options!A:B, 2, FALSE) &amp; VLOOKUP(D14, options!A:B, 2, FALSE) &amp; VLOOKUP(E14, options!A:B, 2, FALSE) &amp; VLOOKUP(F14, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A14 &amp; "/sample." &amp; LOWER(B14) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --transparent --no-with-text  --delete-display-size sample.tex ./13/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <f>L$1 &amp; VLOOKUP(C14, options!A:B, 2, FALSE) &amp; VLOOKUP(D14, options!A:B, 2, FALSE) &amp; VLOOKUP(E14, options!A:B, 2, FALSE) &amp; VLOOKUP(F14, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A14 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B14) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --transparent --no-with-text  --delete-display-size "sam ple.tex" ./13/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1566,11 +1623,11 @@
         <v>15</v>
       </c>
       <c r="G15" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C15, options!A:B, 2, FALSE) &amp; VLOOKUP(D15, options!A:B, 2, FALSE) &amp; VLOOKUP(E15, options!A:B, 2, FALSE) &amp; VLOOKUP(F15, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A15 &amp; "/sample." &amp; LOWER(B15) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --background-color CCFFCC --no-with-text  --delete-display-size sample.tex ./14/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <f>L$1 &amp; VLOOKUP(C15, options!A:B, 2, FALSE) &amp; VLOOKUP(D15, options!A:B, 2, FALSE) &amp; VLOOKUP(E15, options!A:B, 2, FALSE) &amp; VLOOKUP(F15, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A15 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B15) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --background-color CCFFCC --no-with-text  --delete-display-size "sam ple.tex" ./14/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1591,8 +1648,8 @@
         <v>15</v>
       </c>
       <c r="G16" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C16, options!A:B, 2, FALSE) &amp; VLOOKUP(D16, options!A:B, 2, FALSE) &amp; VLOOKUP(E16, options!A:B, 2, FALSE) &amp; VLOOKUP(F16, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A16 &amp; "/sample." &amp; LOWER(B16) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --margins 10 --unit bp --transparent --no-with-text  --delete-display-size sample.tex ./15/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C16, options!A:B, 2, FALSE) &amp; VLOOKUP(D16, options!A:B, 2, FALSE) &amp; VLOOKUP(E16, options!A:B, 2, FALSE) &amp; VLOOKUP(F16, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A16 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B16) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --margins 10 --unit bp --transparent --no-with-text  --delete-display-size "sam ple.tex" ./15/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1616,8 +1673,8 @@
         <v>15</v>
       </c>
       <c r="G17" s="5" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C17, options!A:B, 2, FALSE) &amp; VLOOKUP(D17, options!A:B, 2, FALSE) &amp; VLOOKUP(E17, options!A:B, 2, FALSE) &amp; VLOOKUP(F17, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A17 &amp; "/sample." &amp; LOWER(B17) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-with-text  --delete-display-size sample.tex ./16/sample.pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C17, options!A:B, 2, FALSE) &amp; VLOOKUP(D17, options!A:B, 2, FALSE) &amp; VLOOKUP(E17, options!A:B, 2, FALSE) &amp; VLOOKUP(F17, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A17 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B17) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-with-text  --delete-display-size "sam ple.tex" ./16/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1640,9 +1697,9 @@
       <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C18, options!A:B, 2, FALSE) &amp; VLOOKUP(D18, options!A:B, 2, FALSE) &amp; VLOOKUP(E18, options!A:B, 2, FALSE) &amp; VLOOKUP(F18, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A18 &amp; "/sample." &amp; LOWER(B18) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --transparent --with-text --delete-display-size sample.tex ./17/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      <c r="G18" s="2" t="str">
+        <f>L$1 &amp; VLOOKUP(C18, options!A:B, 2, FALSE) &amp; VLOOKUP(D18, options!A:B, 2, FALSE) &amp; VLOOKUP(E18, options!A:B, 2, FALSE) &amp; VLOOKUP(F18, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A18 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B18) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --transparent --with-text --delete-display-size "sam ple.tex" ./17/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1666,8 +1723,8 @@
         <v>13</v>
       </c>
       <c r="G19" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C19, options!A:B, 2, FALSE) &amp; VLOOKUP(D19, options!A:B, 2, FALSE) &amp; VLOOKUP(E19, options!A:B, 2, FALSE) &amp; VLOOKUP(F19, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A19 &amp; "/sample." &amp; LOWER(B19) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --background-color CCFFCC --with-text --delete-display-size sample.tex ./18/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C19, options!A:B, 2, FALSE) &amp; VLOOKUP(D19, options!A:B, 2, FALSE) &amp; VLOOKUP(E19, options!A:B, 2, FALSE) &amp; VLOOKUP(F19, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A19 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B19) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --background-color CCFFCC --with-text --delete-display-size "sam ple.tex" ./18/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1691,8 +1748,8 @@
         <v>13</v>
       </c>
       <c r="G20" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C20, options!A:B, 2, FALSE) &amp; VLOOKUP(D20, options!A:B, 2, FALSE) &amp; VLOOKUP(E20, options!A:B, 2, FALSE) &amp; VLOOKUP(F20, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A20 &amp; "/sample." &amp; LOWER(B20) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --transparent --with-text --delete-display-size sample.tex ./19/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C20, options!A:B, 2, FALSE) &amp; VLOOKUP(D20, options!A:B, 2, FALSE) &amp; VLOOKUP(E20, options!A:B, 2, FALSE) &amp; VLOOKUP(F20, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A20 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B20) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --with-text --delete-display-size "sam ple.tex" ./19/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1716,8 +1773,8 @@
         <v>13</v>
       </c>
       <c r="G21" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C21, options!A:B, 2, FALSE) &amp; VLOOKUP(D21, options!A:B, 2, FALSE) &amp; VLOOKUP(E21, options!A:B, 2, FALSE) &amp; VLOOKUP(F21, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A21 &amp; "/sample." &amp; LOWER(B21) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --with-text --delete-display-size sample.tex ./20/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C21, options!A:B, 2, FALSE) &amp; VLOOKUP(D21, options!A:B, 2, FALSE) &amp; VLOOKUP(E21, options!A:B, 2, FALSE) &amp; VLOOKUP(F21, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A21 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B21) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --with-text --delete-display-size "sam ple.tex" ./20/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1741,8 +1798,8 @@
         <v>15</v>
       </c>
       <c r="G22" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C22, options!A:B, 2, FALSE) &amp; VLOOKUP(D22, options!A:B, 2, FALSE) &amp; VLOOKUP(E22, options!A:B, 2, FALSE) &amp; VLOOKUP(F22, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A22 &amp; "/sample." &amp; LOWER(B22) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --transparent --no-with-text  --delete-display-size sample.tex ./21/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C22, options!A:B, 2, FALSE) &amp; VLOOKUP(D22, options!A:B, 2, FALSE) &amp; VLOOKUP(E22, options!A:B, 2, FALSE) &amp; VLOOKUP(F22, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A22 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B22) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --transparent --no-with-text  --delete-display-size "sam ple.tex" ./21/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1766,8 +1823,8 @@
         <v>15</v>
       </c>
       <c r="G23" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C23, options!A:B, 2, FALSE) &amp; VLOOKUP(D23, options!A:B, 2, FALSE) &amp; VLOOKUP(E23, options!A:B, 2, FALSE) &amp; VLOOKUP(F23, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A23 &amp; "/sample." &amp; LOWER(B23) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --background-color CCFFCC --no-with-text  --delete-display-size sample.tex ./22/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C23, options!A:B, 2, FALSE) &amp; VLOOKUP(D23, options!A:B, 2, FALSE) &amp; VLOOKUP(E23, options!A:B, 2, FALSE) &amp; VLOOKUP(F23, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A23 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B23) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --background-color CCFFCC --no-with-text  --delete-display-size "sam ple.tex" ./22/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1791,8 +1848,8 @@
         <v>15</v>
       </c>
       <c r="G24" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C24, options!A:B, 2, FALSE) &amp; VLOOKUP(D24, options!A:B, 2, FALSE) &amp; VLOOKUP(E24, options!A:B, 2, FALSE) &amp; VLOOKUP(F24, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A24 &amp; "/sample." &amp; LOWER(B24) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --transparent --no-with-text  --delete-display-size sample.tex ./23/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C24, options!A:B, 2, FALSE) &amp; VLOOKUP(D24, options!A:B, 2, FALSE) &amp; VLOOKUP(E24, options!A:B, 2, FALSE) &amp; VLOOKUP(F24, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A24 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B24) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --no-with-text  --delete-display-size "sam ple.tex" ./23/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1816,8 +1873,8 @@
         <v>15</v>
       </c>
       <c r="G25" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C25, options!A:B, 2, FALSE) &amp; VLOOKUP(D25, options!A:B, 2, FALSE) &amp; VLOOKUP(E25, options!A:B, 2, FALSE) &amp; VLOOKUP(F25, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A25 &amp; "/sample." &amp; LOWER(B25) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-with-text  --delete-display-size sample.tex ./24/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C25, options!A:B, 2, FALSE) &amp; VLOOKUP(D25, options!A:B, 2, FALSE) &amp; VLOOKUP(E25, options!A:B, 2, FALSE) &amp; VLOOKUP(F25, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A25 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B25) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-with-text  --delete-display-size "sam ple.tex" ./24/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1841,8 +1898,8 @@
         <v>34</v>
       </c>
       <c r="G26" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C26, options!A:B, 2, FALSE) &amp; VLOOKUP(D26, options!A:B, 2, FALSE) &amp; VLOOKUP(E26, options!A:B, 2, FALSE) &amp; VLOOKUP(F26, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A26 &amp; "/sample." &amp; LOWER(B26) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --transparent --delete-display-size sample.tex ./25/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C26, options!A:B, 2, FALSE) &amp; VLOOKUP(D26, options!A:B, 2, FALSE) &amp; VLOOKUP(E26, options!A:B, 2, FALSE) &amp; VLOOKUP(F26, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A26 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B26) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --transparent --delete-display-size "sam ple.tex" ./25/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="H26" s="10"/>
     </row>
@@ -1867,8 +1924,8 @@
         <v>34</v>
       </c>
       <c r="G27" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C27, options!A:B, 2, FALSE) &amp; VLOOKUP(D27, options!A:B, 2, FALSE) &amp; VLOOKUP(E27, options!A:B, 2, FALSE) &amp; VLOOKUP(F27, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A27 &amp; "/sample." &amp; LOWER(B27) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --background-color CCFFCC --delete-display-size sample.tex ./26/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C27, options!A:B, 2, FALSE) &amp; VLOOKUP(D27, options!A:B, 2, FALSE) &amp; VLOOKUP(E27, options!A:B, 2, FALSE) &amp; VLOOKUP(F27, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A27 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B27) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --background-color CCFFCC --delete-display-size "sam ple.tex" ./26/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="H27" s="10"/>
     </row>
@@ -1893,8 +1950,8 @@
         <v>34</v>
       </c>
       <c r="G28" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C28, options!A:B, 2, FALSE) &amp; VLOOKUP(D28, options!A:B, 2, FALSE) &amp; VLOOKUP(E28, options!A:B, 2, FALSE) &amp; VLOOKUP(F28, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A28 &amp; "/sample." &amp; LOWER(B28) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --transparent --delete-display-size sample.tex ./27/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C28, options!A:B, 2, FALSE) &amp; VLOOKUP(D28, options!A:B, 2, FALSE) &amp; VLOOKUP(E28, options!A:B, 2, FALSE) &amp; VLOOKUP(F28, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A28 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B28) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --transparent --delete-display-size "sam ple.tex" ./27/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="H28" s="10"/>
     </row>
@@ -1919,8 +1976,8 @@
         <v>33</v>
       </c>
       <c r="G29" s="5" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C29, options!A:B, 2, FALSE) &amp; VLOOKUP(D29, options!A:B, 2, FALSE) &amp; VLOOKUP(E29, options!A:B, 2, FALSE) &amp; VLOOKUP(F29, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A29 &amp; "/sample." &amp; LOWER(B29) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --background-color CCFFCC --delete-display-size sample.tex ./28/sample.svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C29, options!A:B, 2, FALSE) &amp; VLOOKUP(D29, options!A:B, 2, FALSE) &amp; VLOOKUP(E29, options!A:B, 2, FALSE) &amp; VLOOKUP(F29, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A29 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B29) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --background-color CCFFCC --delete-display-size "sam ple.tex" ./28/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="H29" s="10"/>
     </row>
@@ -1945,9 +2002,9 @@
       <c r="F30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C30, options!A:B, 2, FALSE) &amp; VLOOKUP(D30, options!A:B, 2, FALSE) &amp; VLOOKUP(E30, options!A:B, 2, FALSE) &amp; VLOOKUP(F30, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A30 &amp; "/sample." &amp; LOWER(B30) &amp; K$2</f>
-        <v>./tex2img --transparent --no-plain-text sample.tex ./29/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      <c r="G30" s="2" t="str">
+        <f>L$1 &amp; VLOOKUP(C30, options!A:B, 2, FALSE) &amp; VLOOKUP(D30, options!A:B, 2, FALSE) &amp; VLOOKUP(E30, options!A:B, 2, FALSE) &amp; VLOOKUP(F30, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A30 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B30) &amp; L$4</f>
+        <v>./tex2img --workingdir current --transparent --no-plain-text "sam ple.tex" ./29/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="H30" s="11"/>
     </row>
@@ -1973,8 +2030,8 @@
         <v>19</v>
       </c>
       <c r="G31" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C31, options!A:B, 2, FALSE) &amp; VLOOKUP(D31, options!A:B, 2, FALSE) &amp; VLOOKUP(E31, options!A:B, 2, FALSE) &amp; VLOOKUP(F31, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A31 &amp; "/sample." &amp; LOWER(B31) &amp; K$2</f>
-        <v>./tex2img --background-color CCFFCC --no-plain-text sample.tex ./30/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C31, options!A:B, 2, FALSE) &amp; VLOOKUP(D31, options!A:B, 2, FALSE) &amp; VLOOKUP(E31, options!A:B, 2, FALSE) &amp; VLOOKUP(F31, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A31 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B31) &amp; L$4</f>
+        <v>./tex2img --workingdir current --background-color CCFFCC --no-plain-text "sam ple.tex" ./30/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="H31" s="11"/>
     </row>
@@ -2000,8 +2057,8 @@
         <v>19</v>
       </c>
       <c r="G32" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C32, options!A:B, 2, FALSE) &amp; VLOOKUP(D32, options!A:B, 2, FALSE) &amp; VLOOKUP(E32, options!A:B, 2, FALSE) &amp; VLOOKUP(F32, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A32 &amp; "/sample." &amp; LOWER(B32) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp --transparent --no-plain-text sample.tex ./31/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C32, options!A:B, 2, FALSE) &amp; VLOOKUP(D32, options!A:B, 2, FALSE) &amp; VLOOKUP(E32, options!A:B, 2, FALSE) &amp; VLOOKUP(F32, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A32 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B32) &amp; L$4</f>
+        <v>./tex2img --workingdir current --margins 10 --unit bp --transparent --no-plain-text "sam ple.tex" ./31/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="H32" s="11"/>
     </row>
@@ -2027,8 +2084,8 @@
         <v>19</v>
       </c>
       <c r="G33" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C33, options!A:B, 2, FALSE) &amp; VLOOKUP(D33, options!A:B, 2, FALSE) &amp; VLOOKUP(E33, options!A:B, 2, FALSE) &amp; VLOOKUP(F33, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A33 &amp; "/sample." &amp; LOWER(B33) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp --background-color CCFFCC --no-plain-text sample.tex ./32/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C33, options!A:B, 2, FALSE) &amp; VLOOKUP(D33, options!A:B, 2, FALSE) &amp; VLOOKUP(E33, options!A:B, 2, FALSE) &amp; VLOOKUP(F33, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A33 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B33) &amp; L$4</f>
+        <v>./tex2img --workingdir current --margins 10 --unit bp --background-color CCFFCC --no-plain-text "sam ple.tex" ./32/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="H33" s="11"/>
     </row>
@@ -2054,8 +2111,8 @@
         <v>20</v>
       </c>
       <c r="G34" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C34, options!A:B, 2, FALSE) &amp; VLOOKUP(D34, options!A:B, 2, FALSE) &amp; VLOOKUP(E34, options!A:B, 2, FALSE) &amp; VLOOKUP(F34, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A34 &amp; "/sample." &amp; LOWER(B34) &amp; K$2</f>
-        <v>./tex2img --transparent --plain-text sample.tex ./33/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C34, options!A:B, 2, FALSE) &amp; VLOOKUP(D34, options!A:B, 2, FALSE) &amp; VLOOKUP(E34, options!A:B, 2, FALSE) &amp; VLOOKUP(F34, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A34 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B34) &amp; L$4</f>
+        <v>./tex2img --workingdir current --transparent --plain-text "sam ple.tex" ./33/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="H34" s="10"/>
     </row>
@@ -2081,8 +2138,8 @@
         <v>20</v>
       </c>
       <c r="G35" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C35, options!A:B, 2, FALSE) &amp; VLOOKUP(D35, options!A:B, 2, FALSE) &amp; VLOOKUP(E35, options!A:B, 2, FALSE) &amp; VLOOKUP(F35, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A35 &amp; "/sample." &amp; LOWER(B35) &amp; K$2</f>
-        <v>./tex2img --background-color CCFFCC --plain-text sample.tex ./34/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C35, options!A:B, 2, FALSE) &amp; VLOOKUP(D35, options!A:B, 2, FALSE) &amp; VLOOKUP(E35, options!A:B, 2, FALSE) &amp; VLOOKUP(F35, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A35 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B35) &amp; L$4</f>
+        <v>./tex2img --workingdir current --background-color CCFFCC --plain-text "sam ple.tex" ./34/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="H35" s="11"/>
     </row>
@@ -2108,8 +2165,8 @@
         <v>20</v>
       </c>
       <c r="G36" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C36, options!A:B, 2, FALSE) &amp; VLOOKUP(D36, options!A:B, 2, FALSE) &amp; VLOOKUP(E36, options!A:B, 2, FALSE) &amp; VLOOKUP(F36, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A36 &amp; "/sample." &amp; LOWER(B36) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp --transparent --plain-text sample.tex ./35/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C36, options!A:B, 2, FALSE) &amp; VLOOKUP(D36, options!A:B, 2, FALSE) &amp; VLOOKUP(E36, options!A:B, 2, FALSE) &amp; VLOOKUP(F36, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A36 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B36) &amp; L$4</f>
+        <v>./tex2img --workingdir current --margins 10 --unit bp --transparent --plain-text "sam ple.tex" ./35/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2134,8 +2191,8 @@
         <v>20</v>
       </c>
       <c r="G37" s="5" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C37, options!A:B, 2, FALSE) &amp; VLOOKUP(D37, options!A:B, 2, FALSE) &amp; VLOOKUP(E37, options!A:B, 2, FALSE) &amp; VLOOKUP(F37, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A37 &amp; "/sample." &amp; LOWER(B37) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp --background-color CCFFCC --plain-text sample.tex ./36/sample.eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C37, options!A:B, 2, FALSE) &amp; VLOOKUP(D37, options!A:B, 2, FALSE) &amp; VLOOKUP(E37, options!A:B, 2, FALSE) &amp; VLOOKUP(F37, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A37 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B37) &amp; L$4</f>
+        <v>./tex2img --workingdir current --margins 10 --unit bp --background-color CCFFCC --plain-text "sam ple.tex" ./36/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="H37" s="10"/>
     </row>
@@ -2161,9 +2218,9 @@
         <f>""</f>
         <v/>
       </c>
-      <c r="G38" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C38, options!A:B, 2, FALSE) &amp; VLOOKUP(D38, options!A:B, 2, FALSE) &amp; VLOOKUP(E38, options!A:B, 2, FALSE) &amp; VLOOKUP(F38, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A38 &amp; "/sample." &amp; LOWER(B38) &amp; K$2</f>
-        <v>./tex2img --transparent sample.tex ./37/sample.emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      <c r="G38" s="2" t="str">
+        <f>L$1 &amp; VLOOKUP(C38, options!A:B, 2, FALSE) &amp; VLOOKUP(D38, options!A:B, 2, FALSE) &amp; VLOOKUP(E38, options!A:B, 2, FALSE) &amp; VLOOKUP(F38, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A38 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B38) &amp; L$4</f>
+        <v>./tex2img --workingdir current --transparent "sam ple.tex" ./37/"sam ple".emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2189,8 +2246,8 @@
         <v/>
       </c>
       <c r="G39" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C39, options!A:B, 2, FALSE) &amp; VLOOKUP(D39, options!A:B, 2, FALSE) &amp; VLOOKUP(E39, options!A:B, 2, FALSE) &amp; VLOOKUP(F39, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A39 &amp; "/sample." &amp; LOWER(B39) &amp; K$2</f>
-        <v>./tex2img --background-color CCFFCC sample.tex ./38/sample.emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C39, options!A:B, 2, FALSE) &amp; VLOOKUP(D39, options!A:B, 2, FALSE) &amp; VLOOKUP(E39, options!A:B, 2, FALSE) &amp; VLOOKUP(F39, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A39 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B39) &amp; L$4</f>
+        <v>./tex2img --workingdir current --background-color CCFFCC "sam ple.tex" ./38/"sam ple".emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2216,8 +2273,8 @@
         <v/>
       </c>
       <c r="G40" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C40, options!A:B, 2, FALSE) &amp; VLOOKUP(D40, options!A:B, 2, FALSE) &amp; VLOOKUP(E40, options!A:B, 2, FALSE) &amp; VLOOKUP(F40, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A40 &amp; "/sample." &amp; LOWER(B40) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp --transparent sample.tex ./39/sample.emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C40, options!A:B, 2, FALSE) &amp; VLOOKUP(D40, options!A:B, 2, FALSE) &amp; VLOOKUP(E40, options!A:B, 2, FALSE) &amp; VLOOKUP(F40, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A40 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B40) &amp; L$4</f>
+        <v>./tex2img --workingdir current --margins 10 --unit bp --transparent "sam ple.tex" ./39/"sam ple".emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2243,8 +2300,8 @@
         <v/>
       </c>
       <c r="G41" s="5" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C41, options!A:B, 2, FALSE) &amp; VLOOKUP(D41, options!A:B, 2, FALSE) &amp; VLOOKUP(E41, options!A:B, 2, FALSE) &amp; VLOOKUP(F41, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A41 &amp; "/sample." &amp; LOWER(B41) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp --background-color CCFFCC sample.tex ./40/sample.emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C41, options!A:B, 2, FALSE) &amp; VLOOKUP(D41, options!A:B, 2, FALSE) &amp; VLOOKUP(E41, options!A:B, 2, FALSE) &amp; VLOOKUP(F41, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A41 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B41) &amp; L$4</f>
+        <v>./tex2img --workingdir current --margins 10 --unit bp --background-color CCFFCC "sam ple.tex" ./40/"sam ple".emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2269,9 +2326,9 @@
         <f>""</f>
         <v/>
       </c>
-      <c r="G42" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C42, options!A:B, 2, FALSE) &amp; VLOOKUP(D42, options!A:B, 2, FALSE) &amp; VLOOKUP(E42, options!A:B, 2, FALSE) &amp; VLOOKUP(F42, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A42 &amp; "/sample." &amp; LOWER(B42) &amp; K$2</f>
-        <v>./tex2img --transparent sample.tex ./41/sample.png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      <c r="G42" s="2" t="str">
+        <f>L$1 &amp; VLOOKUP(C42, options!A:B, 2, FALSE) &amp; VLOOKUP(D42, options!A:B, 2, FALSE) &amp; VLOOKUP(E42, options!A:B, 2, FALSE) &amp; VLOOKUP(F42, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A42 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B42) &amp; L$4</f>
+        <v>./tex2img --workingdir current --transparent "sam ple.tex" ./41/"sam ple".png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2297,8 +2354,8 @@
         <v/>
       </c>
       <c r="G43" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C43, options!A:B, 2, FALSE) &amp; VLOOKUP(D43, options!A:B, 2, FALSE) &amp; VLOOKUP(E43, options!A:B, 2, FALSE) &amp; VLOOKUP(F43, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A43 &amp; "/sample." &amp; LOWER(B43) &amp; K$2</f>
-        <v>./tex2img --background-color CCFFCC sample.tex ./42/sample.png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C43, options!A:B, 2, FALSE) &amp; VLOOKUP(D43, options!A:B, 2, FALSE) &amp; VLOOKUP(E43, options!A:B, 2, FALSE) &amp; VLOOKUP(F43, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A43 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B43) &amp; L$4</f>
+        <v>./tex2img --workingdir current --background-color CCFFCC "sam ple.tex" ./42/"sam ple".png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2324,8 +2381,8 @@
         <v/>
       </c>
       <c r="G44" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C44, options!A:B, 2, FALSE) &amp; VLOOKUP(D44, options!A:B, 2, FALSE) &amp; VLOOKUP(E44, options!A:B, 2, FALSE) &amp; VLOOKUP(F44, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A44 &amp; "/sample." &amp; LOWER(B44) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp --transparent sample.tex ./43/sample.png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C44, options!A:B, 2, FALSE) &amp; VLOOKUP(D44, options!A:B, 2, FALSE) &amp; VLOOKUP(E44, options!A:B, 2, FALSE) &amp; VLOOKUP(F44, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A44 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B44) &amp; L$4</f>
+        <v>./tex2img --workingdir current --margins 10 --unit bp --transparent "sam ple.tex" ./43/"sam ple".png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2351,8 +2408,8 @@
         <v/>
       </c>
       <c r="G45" s="5" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C45, options!A:B, 2, FALSE) &amp; VLOOKUP(D45, options!A:B, 2, FALSE) &amp; VLOOKUP(E45, options!A:B, 2, FALSE) &amp; VLOOKUP(F45, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A45 &amp; "/sample." &amp; LOWER(B45) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp --background-color CCFFCC sample.tex ./44/sample.png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C45, options!A:B, 2, FALSE) &amp; VLOOKUP(D45, options!A:B, 2, FALSE) &amp; VLOOKUP(E45, options!A:B, 2, FALSE) &amp; VLOOKUP(F45, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A45 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B45) &amp; L$4</f>
+        <v>./tex2img --workingdir current --margins 10 --unit bp --background-color CCFFCC "sam ple.tex" ./44/"sam ple".png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2377,9 +2434,9 @@
         <f>""</f>
         <v/>
       </c>
-      <c r="G46" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C46, options!A:B, 2, FALSE) &amp; VLOOKUP(D46, options!A:B, 2, FALSE) &amp; VLOOKUP(E46, options!A:B, 2, FALSE) &amp; VLOOKUP(F46, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A46 &amp; "/sample." &amp; LOWER(B46) &amp; K$2</f>
-        <v>./tex2img sample.tex ./45/sample.jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      <c r="G46" s="2" t="str">
+        <f>L$1 &amp; VLOOKUP(C46, options!A:B, 2, FALSE) &amp; VLOOKUP(D46, options!A:B, 2, FALSE) &amp; VLOOKUP(E46, options!A:B, 2, FALSE) &amp; VLOOKUP(F46, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A46 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B46) &amp; L$4</f>
+        <v>./tex2img --workingdir current "sam ple.tex" ./45/"sam ple".jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2405,8 +2462,8 @@
         <v/>
       </c>
       <c r="G47" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C47, options!A:B, 2, FALSE) &amp; VLOOKUP(D47, options!A:B, 2, FALSE) &amp; VLOOKUP(E47, options!A:B, 2, FALSE) &amp; VLOOKUP(F47, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A47 &amp; "/sample." &amp; LOWER(B47) &amp; K$2</f>
-        <v>./tex2img --background-color CCFFCC sample.tex ./46/sample.jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C47, options!A:B, 2, FALSE) &amp; VLOOKUP(D47, options!A:B, 2, FALSE) &amp; VLOOKUP(E47, options!A:B, 2, FALSE) &amp; VLOOKUP(F47, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A47 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B47) &amp; L$4</f>
+        <v>./tex2img --workingdir current --background-color CCFFCC "sam ple.tex" ./46/"sam ple".jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2432,8 +2489,8 @@
         <v/>
       </c>
       <c r="G48" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C48, options!A:B, 2, FALSE) &amp; VLOOKUP(D48, options!A:B, 2, FALSE) &amp; VLOOKUP(E48, options!A:B, 2, FALSE) &amp; VLOOKUP(F48, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A48 &amp; "/sample." &amp; LOWER(B48) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp sample.tex ./47/sample.jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C48, options!A:B, 2, FALSE) &amp; VLOOKUP(D48, options!A:B, 2, FALSE) &amp; VLOOKUP(E48, options!A:B, 2, FALSE) &amp; VLOOKUP(F48, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A48 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B48) &amp; L$4</f>
+        <v>./tex2img --workingdir current --margins 10 --unit bp "sam ple.tex" ./47/"sam ple".jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2459,8 +2516,8 @@
         <v/>
       </c>
       <c r="G49" s="5" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C49, options!A:B, 2, FALSE) &amp; VLOOKUP(D49, options!A:B, 2, FALSE) &amp; VLOOKUP(E49, options!A:B, 2, FALSE) &amp; VLOOKUP(F49, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A49 &amp; "/sample." &amp; LOWER(B49) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp --background-color CCFFCC sample.tex ./48/sample.jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C49, options!A:B, 2, FALSE) &amp; VLOOKUP(D49, options!A:B, 2, FALSE) &amp; VLOOKUP(E49, options!A:B, 2, FALSE) &amp; VLOOKUP(F49, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A49 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B49) &amp; L$4</f>
+        <v>./tex2img --workingdir current --margins 10 --unit bp --background-color CCFFCC "sam ple.tex" ./48/"sam ple".jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2485,9 +2542,9 @@
         <f>""</f>
         <v/>
       </c>
-      <c r="G50" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C50, options!A:B, 2, FALSE) &amp; VLOOKUP(D50, options!A:B, 2, FALSE) &amp; VLOOKUP(E50, options!A:B, 2, FALSE) &amp; VLOOKUP(F50, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A50 &amp; "/sample." &amp; LOWER(B50) &amp; K$2</f>
-        <v>./tex2img sample.tex ./49/sample.bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      <c r="G50" s="2" t="str">
+        <f>L$1 &amp; VLOOKUP(C50, options!A:B, 2, FALSE) &amp; VLOOKUP(D50, options!A:B, 2, FALSE) &amp; VLOOKUP(E50, options!A:B, 2, FALSE) &amp; VLOOKUP(F50, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A50 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B50) &amp; L$4</f>
+        <v>./tex2img --workingdir current "sam ple.tex" ./49/"sam ple".bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2513,8 +2570,8 @@
         <v/>
       </c>
       <c r="G51" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C51, options!A:B, 2, FALSE) &amp; VLOOKUP(D51, options!A:B, 2, FALSE) &amp; VLOOKUP(E51, options!A:B, 2, FALSE) &amp; VLOOKUP(F51, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A51 &amp; "/sample." &amp; LOWER(B51) &amp; K$2</f>
-        <v>./tex2img --background-color CCFFCC sample.tex ./50/sample.bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C51, options!A:B, 2, FALSE) &amp; VLOOKUP(D51, options!A:B, 2, FALSE) &amp; VLOOKUP(E51, options!A:B, 2, FALSE) &amp; VLOOKUP(F51, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A51 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B51) &amp; L$4</f>
+        <v>./tex2img --workingdir current --background-color CCFFCC "sam ple.tex" ./50/"sam ple".bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2540,8 +2597,8 @@
         <v/>
       </c>
       <c r="G52" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C52, options!A:B, 2, FALSE) &amp; VLOOKUP(D52, options!A:B, 2, FALSE) &amp; VLOOKUP(E52, options!A:B, 2, FALSE) &amp; VLOOKUP(F52, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A52 &amp; "/sample." &amp; LOWER(B52) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp sample.tex ./51/sample.bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C52, options!A:B, 2, FALSE) &amp; VLOOKUP(D52, options!A:B, 2, FALSE) &amp; VLOOKUP(E52, options!A:B, 2, FALSE) &amp; VLOOKUP(F52, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A52 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B52) &amp; L$4</f>
+        <v>./tex2img --workingdir current --margins 10 --unit bp "sam ple.tex" ./51/"sam ple".bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2567,8 +2624,8 @@
         <v/>
       </c>
       <c r="G53" s="5" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C53, options!A:B, 2, FALSE) &amp; VLOOKUP(D53, options!A:B, 2, FALSE) &amp; VLOOKUP(E53, options!A:B, 2, FALSE) &amp; VLOOKUP(F53, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A53 &amp; "/sample." &amp; LOWER(B53) &amp; K$2</f>
-        <v>./tex2img --margins 10 --unit bp --background-color CCFFCC sample.tex ./52/sample.bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C53, options!A:B, 2, FALSE) &amp; VLOOKUP(D53, options!A:B, 2, FALSE) &amp; VLOOKUP(E53, options!A:B, 2, FALSE) &amp; VLOOKUP(F53, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A53 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B53) &amp; L$4</f>
+        <v>./tex2img --workingdir current --margins 10 --unit bp --background-color CCFFCC "sam ple.tex" ./52/"sam ple".bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2591,9 +2648,9 @@
       <c r="F54" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G54" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C54, options!A:B, 2, FALSE) &amp; VLOOKUP(D54, options!A:B, 2, FALSE) &amp; VLOOKUP(E54, options!A:B, 2, FALSE) &amp; VLOOKUP(F54, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A54 &amp; "/sample." &amp; LOWER(B54) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --transparent --no-quick sample.tex ./53/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      <c r="G54" s="2" t="str">
+        <f>L$1 &amp; VLOOKUP(C54, options!A:B, 2, FALSE) &amp; VLOOKUP(D54, options!A:B, 2, FALSE) &amp; VLOOKUP(E54, options!A:B, 2, FALSE) &amp; VLOOKUP(F54, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A54 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B54) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --transparent --no-quick "sam ple.tex" ./53/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2617,8 +2674,8 @@
         <v>25</v>
       </c>
       <c r="G55" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C55, options!A:B, 2, FALSE) &amp; VLOOKUP(D55, options!A:B, 2, FALSE) &amp; VLOOKUP(E55, options!A:B, 2, FALSE) &amp; VLOOKUP(F55, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A55 &amp; "/sample." &amp; LOWER(B55) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --background-color CCFFCC --no-quick sample.tex ./54/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C55, options!A:B, 2, FALSE) &amp; VLOOKUP(D55, options!A:B, 2, FALSE) &amp; VLOOKUP(E55, options!A:B, 2, FALSE) &amp; VLOOKUP(F55, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A55 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B55) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --background-color CCFFCC --no-quick "sam ple.tex" ./54/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2642,8 +2699,8 @@
         <v>25</v>
       </c>
       <c r="G56" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C56, options!A:B, 2, FALSE) &amp; VLOOKUP(D56, options!A:B, 2, FALSE) &amp; VLOOKUP(E56, options!A:B, 2, FALSE) &amp; VLOOKUP(F56, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A56 &amp; "/sample." &amp; LOWER(B56) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --transparent --no-quick sample.tex ./55/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C56, options!A:B, 2, FALSE) &amp; VLOOKUP(D56, options!A:B, 2, FALSE) &amp; VLOOKUP(E56, options!A:B, 2, FALSE) &amp; VLOOKUP(F56, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A56 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B56) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --no-quick "sam ple.tex" ./55/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2667,8 +2724,8 @@
         <v>25</v>
       </c>
       <c r="G57" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C57, options!A:B, 2, FALSE) &amp; VLOOKUP(D57, options!A:B, 2, FALSE) &amp; VLOOKUP(E57, options!A:B, 2, FALSE) &amp; VLOOKUP(F57, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A57 &amp; "/sample." &amp; LOWER(B57) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick sample.tex ./56/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C57, options!A:B, 2, FALSE) &amp; VLOOKUP(D57, options!A:B, 2, FALSE) &amp; VLOOKUP(E57, options!A:B, 2, FALSE) &amp; VLOOKUP(F57, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A57 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B57) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick "sam ple.tex" ./56/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2692,8 +2749,8 @@
         <v>25</v>
       </c>
       <c r="G58" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C58, options!A:B, 2, FALSE) &amp; VLOOKUP(D58, options!A:B, 2, FALSE) &amp; VLOOKUP(E58, options!A:B, 2, FALSE) &amp; VLOOKUP(F58, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A58 &amp; "/sample." &amp; LOWER(B58) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --transparent --no-quick sample.tex ./57/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C58, options!A:B, 2, FALSE) &amp; VLOOKUP(D58, options!A:B, 2, FALSE) &amp; VLOOKUP(E58, options!A:B, 2, FALSE) &amp; VLOOKUP(F58, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A58 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B58) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --transparent --no-quick "sam ple.tex" ./57/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2717,8 +2774,8 @@
         <v>25</v>
       </c>
       <c r="G59" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C59, options!A:B, 2, FALSE) &amp; VLOOKUP(D59, options!A:B, 2, FALSE) &amp; VLOOKUP(E59, options!A:B, 2, FALSE) &amp; VLOOKUP(F59, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A59 &amp; "/sample." &amp; LOWER(B59) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --background-color CCFFCC --no-quick sample.tex ./58/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C59, options!A:B, 2, FALSE) &amp; VLOOKUP(D59, options!A:B, 2, FALSE) &amp; VLOOKUP(E59, options!A:B, 2, FALSE) &amp; VLOOKUP(F59, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A59 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B59) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --background-color CCFFCC --no-quick "sam ple.tex" ./58/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2742,8 +2799,8 @@
         <v>25</v>
       </c>
       <c r="G60" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C60, options!A:B, 2, FALSE) &amp; VLOOKUP(D60, options!A:B, 2, FALSE) &amp; VLOOKUP(E60, options!A:B, 2, FALSE) &amp; VLOOKUP(F60, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A60 &amp; "/sample." &amp; LOWER(B60) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --margins 10 --unit bp --transparent --no-quick sample.tex ./59/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C60, options!A:B, 2, FALSE) &amp; VLOOKUP(D60, options!A:B, 2, FALSE) &amp; VLOOKUP(E60, options!A:B, 2, FALSE) &amp; VLOOKUP(F60, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A60 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B60) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --margins 10 --unit bp --transparent --no-quick "sam ple.tex" ./59/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2767,8 +2824,8 @@
         <v>25</v>
       </c>
       <c r="G61" s="5" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C61, options!A:B, 2, FALSE) &amp; VLOOKUP(D61, options!A:B, 2, FALSE) &amp; VLOOKUP(E61, options!A:B, 2, FALSE) &amp; VLOOKUP(F61, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A61 &amp; "/sample." &amp; LOWER(B61) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick sample.tex ./60/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C61, options!A:B, 2, FALSE) &amp; VLOOKUP(D61, options!A:B, 2, FALSE) &amp; VLOOKUP(E61, options!A:B, 2, FALSE) &amp; VLOOKUP(F61, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A61 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B61) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick "sam ple.tex" ./60/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2791,9 +2848,9 @@
       <c r="F62" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G62" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C62, options!A:B, 2, FALSE) &amp; VLOOKUP(D62, options!A:B, 2, FALSE) &amp; VLOOKUP(E62, options!A:B, 2, FALSE) &amp; VLOOKUP(F62, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A62 &amp; "/sample." &amp; LOWER(B62) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --transparent --no-quick sample.tex ./61/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      <c r="G62" s="2" t="str">
+        <f>L$1 &amp; VLOOKUP(C62, options!A:B, 2, FALSE) &amp; VLOOKUP(D62, options!A:B, 2, FALSE) &amp; VLOOKUP(E62, options!A:B, 2, FALSE) &amp; VLOOKUP(F62, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A62 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B62) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --transparent --no-quick "sam ple.tex" ./61/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2817,8 +2874,8 @@
         <v>25</v>
       </c>
       <c r="G63" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C63, options!A:B, 2, FALSE) &amp; VLOOKUP(D63, options!A:B, 2, FALSE) &amp; VLOOKUP(E63, options!A:B, 2, FALSE) &amp; VLOOKUP(F63, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A63 &amp; "/sample." &amp; LOWER(B63) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --background-color CCFFCC --no-quick sample.tex ./62/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C63, options!A:B, 2, FALSE) &amp; VLOOKUP(D63, options!A:B, 2, FALSE) &amp; VLOOKUP(E63, options!A:B, 2, FALSE) &amp; VLOOKUP(F63, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A63 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B63) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --background-color CCFFCC --no-quick "sam ple.tex" ./62/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2842,8 +2899,8 @@
         <v>25</v>
       </c>
       <c r="G64" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C64, options!A:B, 2, FALSE) &amp; VLOOKUP(D64, options!A:B, 2, FALSE) &amp; VLOOKUP(E64, options!A:B, 2, FALSE) &amp; VLOOKUP(F64, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A64 &amp; "/sample." &amp; LOWER(B64) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --transparent --no-quick sample.tex ./63/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C64, options!A:B, 2, FALSE) &amp; VLOOKUP(D64, options!A:B, 2, FALSE) &amp; VLOOKUP(E64, options!A:B, 2, FALSE) &amp; VLOOKUP(F64, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A64 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B64) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --no-quick "sam ple.tex" ./63/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2867,8 +2924,8 @@
         <v>25</v>
       </c>
       <c r="G65" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C65, options!A:B, 2, FALSE) &amp; VLOOKUP(D65, options!A:B, 2, FALSE) &amp; VLOOKUP(E65, options!A:B, 2, FALSE) &amp; VLOOKUP(F65, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A65 &amp; "/sample." &amp; LOWER(B65) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick sample.tex ./64/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C65, options!A:B, 2, FALSE) &amp; VLOOKUP(D65, options!A:B, 2, FALSE) &amp; VLOOKUP(E65, options!A:B, 2, FALSE) &amp; VLOOKUP(F65, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A65 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B65) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick "sam ple.tex" ./64/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2892,8 +2949,8 @@
         <v>25</v>
       </c>
       <c r="G66" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C66, options!A:B, 2, FALSE) &amp; VLOOKUP(D66, options!A:B, 2, FALSE) &amp; VLOOKUP(E66, options!A:B, 2, FALSE) &amp; VLOOKUP(F66, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A66 &amp; "/sample." &amp; LOWER(B66) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --transparent --no-quick sample.tex ./65/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C66, options!A:B, 2, FALSE) &amp; VLOOKUP(D66, options!A:B, 2, FALSE) &amp; VLOOKUP(E66, options!A:B, 2, FALSE) &amp; VLOOKUP(F66, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A66 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B66) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --transparent --no-quick "sam ple.tex" ./65/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2917,8 +2974,8 @@
         <v>25</v>
       </c>
       <c r="G67" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C67, options!A:B, 2, FALSE) &amp; VLOOKUP(D67, options!A:B, 2, FALSE) &amp; VLOOKUP(E67, options!A:B, 2, FALSE) &amp; VLOOKUP(F67, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A67 &amp; "/sample." &amp; LOWER(B67) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --background-color CCFFCC --no-quick sample.tex ./66/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C67, options!A:B, 2, FALSE) &amp; VLOOKUP(D67, options!A:B, 2, FALSE) &amp; VLOOKUP(E67, options!A:B, 2, FALSE) &amp; VLOOKUP(F67, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A67 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B67) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --background-color CCFFCC --no-quick "sam ple.tex" ./66/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2942,8 +2999,8 @@
         <v>25</v>
       </c>
       <c r="G68" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C68, options!A:B, 2, FALSE) &amp; VLOOKUP(D68, options!A:B, 2, FALSE) &amp; VLOOKUP(E68, options!A:B, 2, FALSE) &amp; VLOOKUP(F68, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A68 &amp; "/sample." &amp; LOWER(B68) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --transparent --no-quick sample.tex ./67/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C68, options!A:B, 2, FALSE) &amp; VLOOKUP(D68, options!A:B, 2, FALSE) &amp; VLOOKUP(E68, options!A:B, 2, FALSE) &amp; VLOOKUP(F68, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A68 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B68) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --transparent --no-quick "sam ple.tex" ./67/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2967,8 +3024,8 @@
         <v>25</v>
       </c>
       <c r="G69" s="5" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C69, options!A:B, 2, FALSE) &amp; VLOOKUP(D69, options!A:B, 2, FALSE) &amp; VLOOKUP(E69, options!A:B, 2, FALSE) &amp; VLOOKUP(F69, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A69 &amp; "/sample." &amp; LOWER(B69) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --background-color CCFFCC --no-quick sample.tex ./68/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C69, options!A:B, 2, FALSE) &amp; VLOOKUP(D69, options!A:B, 2, FALSE) &amp; VLOOKUP(E69, options!A:B, 2, FALSE) &amp; VLOOKUP(F69, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A69 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B69) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --background-color CCFFCC --no-quick "sam ple.tex" ./68/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2991,9 +3048,9 @@
       <c r="F70" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G70" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C70, options!A:B, 2, FALSE) &amp; VLOOKUP(D70, options!A:B, 2, FALSE) &amp; VLOOKUP(E70, options!A:B, 2, FALSE) &amp; VLOOKUP(F70, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A70 &amp; "/sample." &amp; LOWER(B70) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --transparent --quick sample.tex ./69/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      <c r="G70" s="2" t="str">
+        <f>L$1 &amp; VLOOKUP(C70, options!A:B, 2, FALSE) &amp; VLOOKUP(D70, options!A:B, 2, FALSE) &amp; VLOOKUP(E70, options!A:B, 2, FALSE) &amp; VLOOKUP(F70, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A70 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B70) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --transparent --quick "sam ple.tex" ./69/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3017,8 +3074,8 @@
         <v>26</v>
       </c>
       <c r="G71" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C71, options!A:B, 2, FALSE) &amp; VLOOKUP(D71, options!A:B, 2, FALSE) &amp; VLOOKUP(E71, options!A:B, 2, FALSE) &amp; VLOOKUP(F71, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A71 &amp; "/sample." &amp; LOWER(B71) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --background-color CCFFCC --quick sample.tex ./70/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C71, options!A:B, 2, FALSE) &amp; VLOOKUP(D71, options!A:B, 2, FALSE) &amp; VLOOKUP(E71, options!A:B, 2, FALSE) &amp; VLOOKUP(F71, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A71 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B71) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --background-color CCFFCC --quick "sam ple.tex" ./70/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3042,8 +3099,8 @@
         <v>26</v>
       </c>
       <c r="G72" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C72, options!A:B, 2, FALSE) &amp; VLOOKUP(D72, options!A:B, 2, FALSE) &amp; VLOOKUP(E72, options!A:B, 2, FALSE) &amp; VLOOKUP(F72, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A72 &amp; "/sample." &amp; LOWER(B72) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --transparent --quick sample.tex ./71/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C72, options!A:B, 2, FALSE) &amp; VLOOKUP(D72, options!A:B, 2, FALSE) &amp; VLOOKUP(E72, options!A:B, 2, FALSE) &amp; VLOOKUP(F72, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A72 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B72) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --quick "sam ple.tex" ./71/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3067,8 +3124,8 @@
         <v>26</v>
       </c>
       <c r="G73" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C73, options!A:B, 2, FALSE) &amp; VLOOKUP(D73, options!A:B, 2, FALSE) &amp; VLOOKUP(E73, options!A:B, 2, FALSE) &amp; VLOOKUP(F73, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A73 &amp; "/sample." &amp; LOWER(B73) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick sample.tex ./72/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C73, options!A:B, 2, FALSE) &amp; VLOOKUP(D73, options!A:B, 2, FALSE) &amp; VLOOKUP(E73, options!A:B, 2, FALSE) &amp; VLOOKUP(F73, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A73 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B73) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick "sam ple.tex" ./72/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3092,8 +3149,8 @@
         <v>26</v>
       </c>
       <c r="G74" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C74, options!A:B, 2, FALSE) &amp; VLOOKUP(D74, options!A:B, 2, FALSE) &amp; VLOOKUP(E74, options!A:B, 2, FALSE) &amp; VLOOKUP(F74, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A74 &amp; "/sample." &amp; LOWER(B74) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --transparent --quick sample.tex ./73/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C74, options!A:B, 2, FALSE) &amp; VLOOKUP(D74, options!A:B, 2, FALSE) &amp; VLOOKUP(E74, options!A:B, 2, FALSE) &amp; VLOOKUP(F74, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A74 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B74) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --transparent --quick "sam ple.tex" ./73/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3117,8 +3174,8 @@
         <v>26</v>
       </c>
       <c r="G75" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C75, options!A:B, 2, FALSE) &amp; VLOOKUP(D75, options!A:B, 2, FALSE) &amp; VLOOKUP(E75, options!A:B, 2, FALSE) &amp; VLOOKUP(F75, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A75 &amp; "/sample." &amp; LOWER(B75) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --background-color CCFFCC --quick sample.tex ./74/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C75, options!A:B, 2, FALSE) &amp; VLOOKUP(D75, options!A:B, 2, FALSE) &amp; VLOOKUP(E75, options!A:B, 2, FALSE) &amp; VLOOKUP(F75, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A75 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B75) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --background-color CCFFCC --quick "sam ple.tex" ./74/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3142,8 +3199,8 @@
         <v>26</v>
       </c>
       <c r="G76" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C76, options!A:B, 2, FALSE) &amp; VLOOKUP(D76, options!A:B, 2, FALSE) &amp; VLOOKUP(E76, options!A:B, 2, FALSE) &amp; VLOOKUP(F76, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A76 &amp; "/sample." &amp; LOWER(B76) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --margins 10 --unit bp --transparent --quick sample.tex ./75/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C76, options!A:B, 2, FALSE) &amp; VLOOKUP(D76, options!A:B, 2, FALSE) &amp; VLOOKUP(E76, options!A:B, 2, FALSE) &amp; VLOOKUP(F76, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A76 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B76) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --margins 10 --unit bp --transparent --quick "sam ple.tex" ./75/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3167,8 +3224,8 @@
         <v>26</v>
       </c>
       <c r="G77" s="5" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C77, options!A:B, 2, FALSE) &amp; VLOOKUP(D77, options!A:B, 2, FALSE) &amp; VLOOKUP(E77, options!A:B, 2, FALSE) &amp; VLOOKUP(F77, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A77 &amp; "/sample." &amp; LOWER(B77) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick sample.tex ./76/sample.tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C77, options!A:B, 2, FALSE) &amp; VLOOKUP(D77, options!A:B, 2, FALSE) &amp; VLOOKUP(E77, options!A:B, 2, FALSE) &amp; VLOOKUP(F77, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A77 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B77) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick "sam ple.tex" ./76/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3191,9 +3248,9 @@
       <c r="F78" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G78" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C78, options!A:B, 2, FALSE) &amp; VLOOKUP(D78, options!A:B, 2, FALSE) &amp; VLOOKUP(E78, options!A:B, 2, FALSE) &amp; VLOOKUP(F78, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A78 &amp; "/sample." &amp; LOWER(B78) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --transparent --quick sample.tex ./77/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+      <c r="G78" s="2" t="str">
+        <f>L$1 &amp; VLOOKUP(C78, options!A:B, 2, FALSE) &amp; VLOOKUP(D78, options!A:B, 2, FALSE) &amp; VLOOKUP(E78, options!A:B, 2, FALSE) &amp; VLOOKUP(F78, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A78 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B78) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --transparent --quick "sam ple.tex" ./77/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3217,8 +3274,8 @@
         <v>26</v>
       </c>
       <c r="G79" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C79, options!A:B, 2, FALSE) &amp; VLOOKUP(D79, options!A:B, 2, FALSE) &amp; VLOOKUP(E79, options!A:B, 2, FALSE) &amp; VLOOKUP(F79, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A79 &amp; "/sample." &amp; LOWER(B79) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --background-color CCFFCC --quick sample.tex ./78/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C79, options!A:B, 2, FALSE) &amp; VLOOKUP(D79, options!A:B, 2, FALSE) &amp; VLOOKUP(E79, options!A:B, 2, FALSE) &amp; VLOOKUP(F79, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A79 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B79) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --background-color CCFFCC --quick "sam ple.tex" ./78/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3242,8 +3299,8 @@
         <v>26</v>
       </c>
       <c r="G80" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C80, options!A:B, 2, FALSE) &amp; VLOOKUP(D80, options!A:B, 2, FALSE) &amp; VLOOKUP(E80, options!A:B, 2, FALSE) &amp; VLOOKUP(F80, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A80 &amp; "/sample." &amp; LOWER(B80) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --transparent --quick sample.tex ./79/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C80, options!A:B, 2, FALSE) &amp; VLOOKUP(D80, options!A:B, 2, FALSE) &amp; VLOOKUP(E80, options!A:B, 2, FALSE) &amp; VLOOKUP(F80, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A80 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B80) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --quick "sam ple.tex" ./79/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3267,8 +3324,8 @@
         <v>26</v>
       </c>
       <c r="G81" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C81, options!A:B, 2, FALSE) &amp; VLOOKUP(D81, options!A:B, 2, FALSE) &amp; VLOOKUP(E81, options!A:B, 2, FALSE) &amp; VLOOKUP(F81, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A81 &amp; "/sample." &amp; LOWER(B81) &amp; K$2</f>
-        <v>./tex2img --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick sample.tex ./80/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C81, options!A:B, 2, FALSE) &amp; VLOOKUP(D81, options!A:B, 2, FALSE) &amp; VLOOKUP(E81, options!A:B, 2, FALSE) &amp; VLOOKUP(F81, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A81 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B81) &amp; L$4</f>
+        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick "sam ple.tex" ./80/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3292,8 +3349,8 @@
         <v>26</v>
       </c>
       <c r="G82" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C82, options!A:B, 2, FALSE) &amp; VLOOKUP(D82, options!A:B, 2, FALSE) &amp; VLOOKUP(E82, options!A:B, 2, FALSE) &amp; VLOOKUP(F82, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A82 &amp; "/sample." &amp; LOWER(B82) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --transparent --quick sample.tex ./81/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C82, options!A:B, 2, FALSE) &amp; VLOOKUP(D82, options!A:B, 2, FALSE) &amp; VLOOKUP(E82, options!A:B, 2, FALSE) &amp; VLOOKUP(F82, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A82 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B82) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --transparent --quick "sam ple.tex" ./81/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3317,8 +3374,8 @@
         <v>26</v>
       </c>
       <c r="G83" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C83, options!A:B, 2, FALSE) &amp; VLOOKUP(D83, options!A:B, 2, FALSE) &amp; VLOOKUP(E83, options!A:B, 2, FALSE) &amp; VLOOKUP(F83, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A83 &amp; "/sample." &amp; LOWER(B83) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --background-color CCFFCC --quick sample.tex ./82/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C83, options!A:B, 2, FALSE) &amp; VLOOKUP(D83, options!A:B, 2, FALSE) &amp; VLOOKUP(E83, options!A:B, 2, FALSE) &amp; VLOOKUP(F83, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A83 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B83) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --background-color CCFFCC --quick "sam ple.tex" ./82/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3342,8 +3399,8 @@
         <v>26</v>
       </c>
       <c r="G84" s="3" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C84, options!A:B, 2, FALSE) &amp; VLOOKUP(D84, options!A:B, 2, FALSE) &amp; VLOOKUP(E84, options!A:B, 2, FALSE) &amp; VLOOKUP(F84, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A84 &amp; "/sample." &amp; LOWER(B84) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --transparent --quick sample.tex ./83/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C84, options!A:B, 2, FALSE) &amp; VLOOKUP(D84, options!A:B, 2, FALSE) &amp; VLOOKUP(E84, options!A:B, 2, FALSE) &amp; VLOOKUP(F84, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A84 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B84) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --transparent --quick "sam ple.tex" ./83/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3367,8 +3424,8 @@
         <v>26</v>
       </c>
       <c r="G85" s="5" t="str">
-        <f>"./tex2img " &amp; VLOOKUP(C85, options!A:B, 2, FALSE) &amp; VLOOKUP(D85, options!A:B, 2, FALSE) &amp; VLOOKUP(E85, options!A:B, 2, FALSE) &amp; VLOOKUP(F85, options!A:B, 2, FALSE) &amp; "sample.tex ./" &amp; A85 &amp; "/sample." &amp; LOWER(B85) &amp; K$2</f>
-        <v>./tex2img --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --background-color CCFFCC --quick sample.tex ./84/sample.gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <f>L$1 &amp; VLOOKUP(C85, options!A:B, 2, FALSE) &amp; VLOOKUP(D85, options!A:B, 2, FALSE) &amp; VLOOKUP(E85, options!A:B, 2, FALSE) &amp; VLOOKUP(F85, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A85 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B85) &amp; L$4</f>
+        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --background-color CCFFCC --quick "sam ple.tex" ./84/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
   </sheetData>

--- a/te st/list.xlsx
+++ b/te st/list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="27320" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="テスト項目" sheetId="1" r:id="rId1"/>
@@ -389,15 +389,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">./tex2img --workingdir current </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ソースファイル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"sam ple.tex"</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -409,6 +401,14 @@
   </si>
   <si>
     <t>"sam ple"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">./tex2img --resolution 6 --workingdir current </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"in put.pdf"</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1192,8 +1192,8 @@
   <dimension ref="A1:L85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F10" sqref="F10"/>
+      <pane xSplit="6" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -1238,7 +1238,7 @@
         <v>61</v>
       </c>
       <c r="L1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1263,16 +1263,16 @@
       </c>
       <c r="G2" s="2" t="str">
         <f>L$1 &amp; VLOOKUP(C2, options!A:B, 2, FALSE) &amp; VLOOKUP(D2, options!A:B, 2, FALSE) &amp; VLOOKUP(E2, options!A:B, 2, FALSE) &amp; VLOOKUP(F2, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A2 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B2) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --transparent --with-text --delete-display-size "sam ple.tex" ./1/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --transparent --with-text --delete-display-size "in put.pdf" ./1/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I2" t="s">
         <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1297,16 +1297,16 @@
       </c>
       <c r="G3" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C3, options!A:B, 2, FALSE) &amp; VLOOKUP(D3, options!A:B, 2, FALSE) &amp; VLOOKUP(E3, options!A:B, 2, FALSE) &amp; VLOOKUP(F3, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A3 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B3) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --background-color CCFFCC --with-text --delete-display-size "sam ple.tex" ./2/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --background-color CCFFCC --with-text --delete-display-size "in put.pdf" ./2/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I3" t="s">
         <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="G4" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C4, options!A:B, 2, FALSE) &amp; VLOOKUP(D4, options!A:B, 2, FALSE) &amp; VLOOKUP(E4, options!A:B, 2, FALSE) &amp; VLOOKUP(F4, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A4 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B4) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --with-text --delete-display-size "sam ple.tex" ./3/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --with-text --delete-display-size "in put.pdf" ./3/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I4" t="s">
         <v>37</v>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G5" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C5, options!A:B, 2, FALSE) &amp; VLOOKUP(D5, options!A:B, 2, FALSE) &amp; VLOOKUP(E5, options!A:B, 2, FALSE) &amp; VLOOKUP(F5, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A5 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B5) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --with-text --delete-display-size "sam ple.tex" ./4/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --with-text --delete-display-size "in put.pdf" ./4/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I5" t="s">
         <v>36</v>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="G6" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C6, options!A:B, 2, FALSE) &amp; VLOOKUP(D6, options!A:B, 2, FALSE) &amp; VLOOKUP(E6, options!A:B, 2, FALSE) &amp; VLOOKUP(F6, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A6 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B6) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --transparent --with-text --delete-display-size "sam ple.tex" ./5/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --transparent --with-text --delete-display-size "in put.pdf" ./5/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I6" t="s">
         <v>40</v>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="G7" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C7, options!A:B, 2, FALSE) &amp; VLOOKUP(D7, options!A:B, 2, FALSE) &amp; VLOOKUP(E7, options!A:B, 2, FALSE) &amp; VLOOKUP(F7, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A7 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B7) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --background-color CCFFCC --with-text --delete-display-size "sam ple.tex" ./6/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --background-color CCFFCC --with-text --delete-display-size "in put.pdf" ./6/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I7" t="s">
         <v>58</v>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="G8" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C8, options!A:B, 2, FALSE) &amp; VLOOKUP(D8, options!A:B, 2, FALSE) &amp; VLOOKUP(E8, options!A:B, 2, FALSE) &amp; VLOOKUP(F8, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A8 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B8) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --margins 10 --unit bp --transparent --with-text --delete-display-size "sam ple.tex" ./7/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --margins 10 --unit bp --transparent --with-text --delete-display-size "in put.pdf" ./7/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="G9" s="5" t="str">
         <f>L$1 &amp; VLOOKUP(C9, options!A:B, 2, FALSE) &amp; VLOOKUP(D9, options!A:B, 2, FALSE) &amp; VLOOKUP(E9, options!A:B, 2, FALSE) &amp; VLOOKUP(F9, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A9 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B9) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --margins 10 --unit bp --background-color CCFFCC --with-text --delete-display-size "sam ple.tex" ./8/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --margins 10 --unit bp --background-color CCFFCC --with-text --delete-display-size "in put.pdf" ./8/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="G10" s="2" t="str">
         <f>L$1 &amp; VLOOKUP(C10, options!A:B, 2, FALSE) &amp; VLOOKUP(D10, options!A:B, 2, FALSE) &amp; VLOOKUP(E10, options!A:B, 2, FALSE) &amp; VLOOKUP(F10, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A10 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B10) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --transparent --no-with-text  --delete-display-size "sam ple.tex" ./9/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --transparent --no-with-text  --delete-display-size "in put.pdf" ./9/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="G11" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C11, options!A:B, 2, FALSE) &amp; VLOOKUP(D11, options!A:B, 2, FALSE) &amp; VLOOKUP(E11, options!A:B, 2, FALSE) &amp; VLOOKUP(F11, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A11 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B11) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --background-color CCFFCC --no-with-text  --delete-display-size "sam ple.tex" ./10/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --background-color CCFFCC --no-with-text  --delete-display-size "in put.pdf" ./10/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="G12" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C12, options!A:B, 2, FALSE) &amp; VLOOKUP(D12, options!A:B, 2, FALSE) &amp; VLOOKUP(E12, options!A:B, 2, FALSE) &amp; VLOOKUP(F12, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A12 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B12) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --no-with-text  --delete-display-size "sam ple.tex" ./11/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --no-with-text  --delete-display-size "in put.pdf" ./11/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="G13" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C13, options!A:B, 2, FALSE) &amp; VLOOKUP(D13, options!A:B, 2, FALSE) &amp; VLOOKUP(E13, options!A:B, 2, FALSE) &amp; VLOOKUP(F13, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A13 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B13) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-with-text  --delete-display-size "sam ple.tex" ./12/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-with-text  --delete-display-size "in put.pdf" ./12/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G14" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C14, options!A:B, 2, FALSE) &amp; VLOOKUP(D14, options!A:B, 2, FALSE) &amp; VLOOKUP(E14, options!A:B, 2, FALSE) &amp; VLOOKUP(F14, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A14 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B14) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --transparent --no-with-text  --delete-display-size "sam ple.tex" ./13/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --transparent --no-with-text  --delete-display-size "in put.pdf" ./13/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="G15" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C15, options!A:B, 2, FALSE) &amp; VLOOKUP(D15, options!A:B, 2, FALSE) &amp; VLOOKUP(E15, options!A:B, 2, FALSE) &amp; VLOOKUP(F15, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A15 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B15) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --background-color CCFFCC --no-with-text  --delete-display-size "sam ple.tex" ./14/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --background-color CCFFCC --no-with-text  --delete-display-size "in put.pdf" ./14/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="G16" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C16, options!A:B, 2, FALSE) &amp; VLOOKUP(D16, options!A:B, 2, FALSE) &amp; VLOOKUP(E16, options!A:B, 2, FALSE) &amp; VLOOKUP(F16, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A16 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B16) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --margins 10 --unit bp --transparent --no-with-text  --delete-display-size "sam ple.tex" ./15/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --margins 10 --unit bp --transparent --no-with-text  --delete-display-size "in put.pdf" ./15/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="G17" s="5" t="str">
         <f>L$1 &amp; VLOOKUP(C17, options!A:B, 2, FALSE) &amp; VLOOKUP(D17, options!A:B, 2, FALSE) &amp; VLOOKUP(E17, options!A:B, 2, FALSE) &amp; VLOOKUP(F17, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A17 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B17) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-with-text  --delete-display-size "sam ple.tex" ./16/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-with-text  --delete-display-size "in put.pdf" ./16/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="G18" s="2" t="str">
         <f>L$1 &amp; VLOOKUP(C18, options!A:B, 2, FALSE) &amp; VLOOKUP(D18, options!A:B, 2, FALSE) &amp; VLOOKUP(E18, options!A:B, 2, FALSE) &amp; VLOOKUP(F18, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A18 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B18) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --transparent --with-text --delete-display-size "sam ple.tex" ./17/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --transparent --with-text --delete-display-size "in put.pdf" ./17/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="G19" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C19, options!A:B, 2, FALSE) &amp; VLOOKUP(D19, options!A:B, 2, FALSE) &amp; VLOOKUP(E19, options!A:B, 2, FALSE) &amp; VLOOKUP(F19, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A19 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B19) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --background-color CCFFCC --with-text --delete-display-size "sam ple.tex" ./18/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --background-color CCFFCC --with-text --delete-display-size "in put.pdf" ./18/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="G20" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C20, options!A:B, 2, FALSE) &amp; VLOOKUP(D20, options!A:B, 2, FALSE) &amp; VLOOKUP(E20, options!A:B, 2, FALSE) &amp; VLOOKUP(F20, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A20 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B20) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --with-text --delete-display-size "sam ple.tex" ./19/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --with-text --delete-display-size "in put.pdf" ./19/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="G21" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C21, options!A:B, 2, FALSE) &amp; VLOOKUP(D21, options!A:B, 2, FALSE) &amp; VLOOKUP(E21, options!A:B, 2, FALSE) &amp; VLOOKUP(F21, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A21 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B21) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --with-text --delete-display-size "sam ple.tex" ./20/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --with-text --delete-display-size "in put.pdf" ./20/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="G22" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C22, options!A:B, 2, FALSE) &amp; VLOOKUP(D22, options!A:B, 2, FALSE) &amp; VLOOKUP(E22, options!A:B, 2, FALSE) &amp; VLOOKUP(F22, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A22 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B22) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --transparent --no-with-text  --delete-display-size "sam ple.tex" ./21/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --transparent --no-with-text  --delete-display-size "in put.pdf" ./21/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="G23" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C23, options!A:B, 2, FALSE) &amp; VLOOKUP(D23, options!A:B, 2, FALSE) &amp; VLOOKUP(E23, options!A:B, 2, FALSE) &amp; VLOOKUP(F23, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A23 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B23) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --background-color CCFFCC --no-with-text  --delete-display-size "sam ple.tex" ./22/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --background-color CCFFCC --no-with-text  --delete-display-size "in put.pdf" ./22/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="G24" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C24, options!A:B, 2, FALSE) &amp; VLOOKUP(D24, options!A:B, 2, FALSE) &amp; VLOOKUP(E24, options!A:B, 2, FALSE) &amp; VLOOKUP(F24, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A24 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B24) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --no-with-text  --delete-display-size "sam ple.tex" ./23/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --no-with-text  --delete-display-size "in put.pdf" ./23/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="G25" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C25, options!A:B, 2, FALSE) &amp; VLOOKUP(D25, options!A:B, 2, FALSE) &amp; VLOOKUP(E25, options!A:B, 2, FALSE) &amp; VLOOKUP(F25, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A25 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B25) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-with-text  --delete-display-size "sam ple.tex" ./24/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-with-text  --delete-display-size "in put.pdf" ./24/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="G26" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C26, options!A:B, 2, FALSE) &amp; VLOOKUP(D26, options!A:B, 2, FALSE) &amp; VLOOKUP(E26, options!A:B, 2, FALSE) &amp; VLOOKUP(F26, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A26 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B26) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --transparent --delete-display-size "sam ple.tex" ./25/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --transparent --delete-display-size "in put.pdf" ./25/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="H26" s="10"/>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="G27" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C27, options!A:B, 2, FALSE) &amp; VLOOKUP(D27, options!A:B, 2, FALSE) &amp; VLOOKUP(E27, options!A:B, 2, FALSE) &amp; VLOOKUP(F27, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A27 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B27) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --background-color CCFFCC --delete-display-size "sam ple.tex" ./26/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --background-color CCFFCC --delete-display-size "in put.pdf" ./26/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="H27" s="10"/>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="G28" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C28, options!A:B, 2, FALSE) &amp; VLOOKUP(D28, options!A:B, 2, FALSE) &amp; VLOOKUP(E28, options!A:B, 2, FALSE) &amp; VLOOKUP(F28, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A28 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B28) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --transparent --delete-display-size "sam ple.tex" ./27/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --transparent --delete-display-size "in put.pdf" ./27/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="H28" s="10"/>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="G29" s="5" t="str">
         <f>L$1 &amp; VLOOKUP(C29, options!A:B, 2, FALSE) &amp; VLOOKUP(D29, options!A:B, 2, FALSE) &amp; VLOOKUP(E29, options!A:B, 2, FALSE) &amp; VLOOKUP(F29, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A29 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B29) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --background-color CCFFCC --delete-display-size "sam ple.tex" ./28/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --background-color CCFFCC --delete-display-size "in put.pdf" ./28/"sam ple".svg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="H29" s="10"/>
     </row>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="G30" s="2" t="str">
         <f>L$1 &amp; VLOOKUP(C30, options!A:B, 2, FALSE) &amp; VLOOKUP(D30, options!A:B, 2, FALSE) &amp; VLOOKUP(E30, options!A:B, 2, FALSE) &amp; VLOOKUP(F30, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A30 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B30) &amp; L$4</f>
-        <v>./tex2img --workingdir current --transparent --no-plain-text "sam ple.tex" ./29/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --transparent --no-plain-text "in put.pdf" ./29/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="H30" s="11"/>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G31" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C31, options!A:B, 2, FALSE) &amp; VLOOKUP(D31, options!A:B, 2, FALSE) &amp; VLOOKUP(E31, options!A:B, 2, FALSE) &amp; VLOOKUP(F31, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A31 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B31) &amp; L$4</f>
-        <v>./tex2img --workingdir current --background-color CCFFCC --no-plain-text "sam ple.tex" ./30/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --background-color CCFFCC --no-plain-text "in put.pdf" ./30/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="H31" s="11"/>
     </row>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="G32" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C32, options!A:B, 2, FALSE) &amp; VLOOKUP(D32, options!A:B, 2, FALSE) &amp; VLOOKUP(E32, options!A:B, 2, FALSE) &amp; VLOOKUP(F32, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A32 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B32) &amp; L$4</f>
-        <v>./tex2img --workingdir current --margins 10 --unit bp --transparent --no-plain-text "sam ple.tex" ./31/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp --transparent --no-plain-text "in put.pdf" ./31/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="H32" s="11"/>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="G33" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C33, options!A:B, 2, FALSE) &amp; VLOOKUP(D33, options!A:B, 2, FALSE) &amp; VLOOKUP(E33, options!A:B, 2, FALSE) &amp; VLOOKUP(F33, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A33 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B33) &amp; L$4</f>
-        <v>./tex2img --workingdir current --margins 10 --unit bp --background-color CCFFCC --no-plain-text "sam ple.tex" ./32/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp --background-color CCFFCC --no-plain-text "in put.pdf" ./32/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="H33" s="11"/>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="G34" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C34, options!A:B, 2, FALSE) &amp; VLOOKUP(D34, options!A:B, 2, FALSE) &amp; VLOOKUP(E34, options!A:B, 2, FALSE) &amp; VLOOKUP(F34, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A34 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B34) &amp; L$4</f>
-        <v>./tex2img --workingdir current --transparent --plain-text "sam ple.tex" ./33/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --transparent --plain-text "in put.pdf" ./33/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="H34" s="10"/>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="G35" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C35, options!A:B, 2, FALSE) &amp; VLOOKUP(D35, options!A:B, 2, FALSE) &amp; VLOOKUP(E35, options!A:B, 2, FALSE) &amp; VLOOKUP(F35, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A35 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B35) &amp; L$4</f>
-        <v>./tex2img --workingdir current --background-color CCFFCC --plain-text "sam ple.tex" ./34/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --background-color CCFFCC --plain-text "in put.pdf" ./34/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="H35" s="11"/>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="G36" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C36, options!A:B, 2, FALSE) &amp; VLOOKUP(D36, options!A:B, 2, FALSE) &amp; VLOOKUP(E36, options!A:B, 2, FALSE) &amp; VLOOKUP(F36, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A36 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B36) &amp; L$4</f>
-        <v>./tex2img --workingdir current --margins 10 --unit bp --transparent --plain-text "sam ple.tex" ./35/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp --transparent --plain-text "in put.pdf" ./35/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="G37" s="5" t="str">
         <f>L$1 &amp; VLOOKUP(C37, options!A:B, 2, FALSE) &amp; VLOOKUP(D37, options!A:B, 2, FALSE) &amp; VLOOKUP(E37, options!A:B, 2, FALSE) &amp; VLOOKUP(F37, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A37 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B37) &amp; L$4</f>
-        <v>./tex2img --workingdir current --margins 10 --unit bp --background-color CCFFCC --plain-text "sam ple.tex" ./36/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp --background-color CCFFCC --plain-text "in put.pdf" ./36/"sam ple".eps; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="H37" s="10"/>
     </row>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="G38" s="2" t="str">
         <f>L$1 &amp; VLOOKUP(C38, options!A:B, 2, FALSE) &amp; VLOOKUP(D38, options!A:B, 2, FALSE) &amp; VLOOKUP(E38, options!A:B, 2, FALSE) &amp; VLOOKUP(F38, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A38 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B38) &amp; L$4</f>
-        <v>./tex2img --workingdir current --transparent "sam ple.tex" ./37/"sam ple".emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --transparent "in put.pdf" ./37/"sam ple".emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="G39" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C39, options!A:B, 2, FALSE) &amp; VLOOKUP(D39, options!A:B, 2, FALSE) &amp; VLOOKUP(E39, options!A:B, 2, FALSE) &amp; VLOOKUP(F39, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A39 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B39) &amp; L$4</f>
-        <v>./tex2img --workingdir current --background-color CCFFCC "sam ple.tex" ./38/"sam ple".emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --background-color CCFFCC "in put.pdf" ./38/"sam ple".emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="G40" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C40, options!A:B, 2, FALSE) &amp; VLOOKUP(D40, options!A:B, 2, FALSE) &amp; VLOOKUP(E40, options!A:B, 2, FALSE) &amp; VLOOKUP(F40, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A40 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B40) &amp; L$4</f>
-        <v>./tex2img --workingdir current --margins 10 --unit bp --transparent "sam ple.tex" ./39/"sam ple".emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp --transparent "in put.pdf" ./39/"sam ple".emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="G41" s="5" t="str">
         <f>L$1 &amp; VLOOKUP(C41, options!A:B, 2, FALSE) &amp; VLOOKUP(D41, options!A:B, 2, FALSE) &amp; VLOOKUP(E41, options!A:B, 2, FALSE) &amp; VLOOKUP(F41, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A41 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B41) &amp; L$4</f>
-        <v>./tex2img --workingdir current --margins 10 --unit bp --background-color CCFFCC "sam ple.tex" ./40/"sam ple".emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp --background-color CCFFCC "in put.pdf" ./40/"sam ple".emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="G42" s="2" t="str">
         <f>L$1 &amp; VLOOKUP(C42, options!A:B, 2, FALSE) &amp; VLOOKUP(D42, options!A:B, 2, FALSE) &amp; VLOOKUP(E42, options!A:B, 2, FALSE) &amp; VLOOKUP(F42, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A42 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B42) &amp; L$4</f>
-        <v>./tex2img --workingdir current --transparent "sam ple.tex" ./41/"sam ple".png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --transparent "in put.pdf" ./41/"sam ple".png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="G43" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C43, options!A:B, 2, FALSE) &amp; VLOOKUP(D43, options!A:B, 2, FALSE) &amp; VLOOKUP(E43, options!A:B, 2, FALSE) &amp; VLOOKUP(F43, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A43 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B43) &amp; L$4</f>
-        <v>./tex2img --workingdir current --background-color CCFFCC "sam ple.tex" ./42/"sam ple".png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --background-color CCFFCC "in put.pdf" ./42/"sam ple".png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="G44" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C44, options!A:B, 2, FALSE) &amp; VLOOKUP(D44, options!A:B, 2, FALSE) &amp; VLOOKUP(E44, options!A:B, 2, FALSE) &amp; VLOOKUP(F44, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A44 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B44) &amp; L$4</f>
-        <v>./tex2img --workingdir current --margins 10 --unit bp --transparent "sam ple.tex" ./43/"sam ple".png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp --transparent "in put.pdf" ./43/"sam ple".png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="G45" s="5" t="str">
         <f>L$1 &amp; VLOOKUP(C45, options!A:B, 2, FALSE) &amp; VLOOKUP(D45, options!A:B, 2, FALSE) &amp; VLOOKUP(E45, options!A:B, 2, FALSE) &amp; VLOOKUP(F45, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A45 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B45) &amp; L$4</f>
-        <v>./tex2img --workingdir current --margins 10 --unit bp --background-color CCFFCC "sam ple.tex" ./44/"sam ple".png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp --background-color CCFFCC "in put.pdf" ./44/"sam ple".png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="G46" s="2" t="str">
         <f>L$1 &amp; VLOOKUP(C46, options!A:B, 2, FALSE) &amp; VLOOKUP(D46, options!A:B, 2, FALSE) &amp; VLOOKUP(E46, options!A:B, 2, FALSE) &amp; VLOOKUP(F46, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A46 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B46) &amp; L$4</f>
-        <v>./tex2img --workingdir current "sam ple.tex" ./45/"sam ple".jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current "in put.pdf" ./45/"sam ple".jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="G47" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C47, options!A:B, 2, FALSE) &amp; VLOOKUP(D47, options!A:B, 2, FALSE) &amp; VLOOKUP(E47, options!A:B, 2, FALSE) &amp; VLOOKUP(F47, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A47 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B47) &amp; L$4</f>
-        <v>./tex2img --workingdir current --background-color CCFFCC "sam ple.tex" ./46/"sam ple".jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --background-color CCFFCC "in put.pdf" ./46/"sam ple".jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="G48" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C48, options!A:B, 2, FALSE) &amp; VLOOKUP(D48, options!A:B, 2, FALSE) &amp; VLOOKUP(E48, options!A:B, 2, FALSE) &amp; VLOOKUP(F48, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A48 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B48) &amp; L$4</f>
-        <v>./tex2img --workingdir current --margins 10 --unit bp "sam ple.tex" ./47/"sam ple".jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp "in put.pdf" ./47/"sam ple".jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="G49" s="5" t="str">
         <f>L$1 &amp; VLOOKUP(C49, options!A:B, 2, FALSE) &amp; VLOOKUP(D49, options!A:B, 2, FALSE) &amp; VLOOKUP(E49, options!A:B, 2, FALSE) &amp; VLOOKUP(F49, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A49 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B49) &amp; L$4</f>
-        <v>./tex2img --workingdir current --margins 10 --unit bp --background-color CCFFCC "sam ple.tex" ./48/"sam ple".jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp --background-color CCFFCC "in put.pdf" ./48/"sam ple".jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="G50" s="2" t="str">
         <f>L$1 &amp; VLOOKUP(C50, options!A:B, 2, FALSE) &amp; VLOOKUP(D50, options!A:B, 2, FALSE) &amp; VLOOKUP(E50, options!A:B, 2, FALSE) &amp; VLOOKUP(F50, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A50 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B50) &amp; L$4</f>
-        <v>./tex2img --workingdir current "sam ple.tex" ./49/"sam ple".bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current "in put.pdf" ./49/"sam ple".bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="G51" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C51, options!A:B, 2, FALSE) &amp; VLOOKUP(D51, options!A:B, 2, FALSE) &amp; VLOOKUP(E51, options!A:B, 2, FALSE) &amp; VLOOKUP(F51, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A51 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B51) &amp; L$4</f>
-        <v>./tex2img --workingdir current --background-color CCFFCC "sam ple.tex" ./50/"sam ple".bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --background-color CCFFCC "in put.pdf" ./50/"sam ple".bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="G52" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C52, options!A:B, 2, FALSE) &amp; VLOOKUP(D52, options!A:B, 2, FALSE) &amp; VLOOKUP(E52, options!A:B, 2, FALSE) &amp; VLOOKUP(F52, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A52 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B52) &amp; L$4</f>
-        <v>./tex2img --workingdir current --margins 10 --unit bp "sam ple.tex" ./51/"sam ple".bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp "in put.pdf" ./51/"sam ple".bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="G53" s="5" t="str">
         <f>L$1 &amp; VLOOKUP(C53, options!A:B, 2, FALSE) &amp; VLOOKUP(D53, options!A:B, 2, FALSE) &amp; VLOOKUP(E53, options!A:B, 2, FALSE) &amp; VLOOKUP(F53, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A53 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B53) &amp; L$4</f>
-        <v>./tex2img --workingdir current --margins 10 --unit bp --background-color CCFFCC "sam ple.tex" ./52/"sam ple".bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp --background-color CCFFCC "in put.pdf" ./52/"sam ple".bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="G54" s="2" t="str">
         <f>L$1 &amp; VLOOKUP(C54, options!A:B, 2, FALSE) &amp; VLOOKUP(D54, options!A:B, 2, FALSE) &amp; VLOOKUP(E54, options!A:B, 2, FALSE) &amp; VLOOKUP(F54, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A54 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B54) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --transparent --no-quick "sam ple.tex" ./53/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --transparent --no-quick "in put.pdf" ./53/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="G55" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C55, options!A:B, 2, FALSE) &amp; VLOOKUP(D55, options!A:B, 2, FALSE) &amp; VLOOKUP(E55, options!A:B, 2, FALSE) &amp; VLOOKUP(F55, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A55 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B55) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --background-color CCFFCC --no-quick "sam ple.tex" ./54/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --background-color CCFFCC --no-quick "in put.pdf" ./54/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="G56" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C56, options!A:B, 2, FALSE) &amp; VLOOKUP(D56, options!A:B, 2, FALSE) &amp; VLOOKUP(E56, options!A:B, 2, FALSE) &amp; VLOOKUP(F56, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A56 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B56) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --no-quick "sam ple.tex" ./55/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --no-quick "in put.pdf" ./55/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="G57" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C57, options!A:B, 2, FALSE) &amp; VLOOKUP(D57, options!A:B, 2, FALSE) &amp; VLOOKUP(E57, options!A:B, 2, FALSE) &amp; VLOOKUP(F57, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A57 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B57) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick "sam ple.tex" ./56/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick "in put.pdf" ./56/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="G58" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C58, options!A:B, 2, FALSE) &amp; VLOOKUP(D58, options!A:B, 2, FALSE) &amp; VLOOKUP(E58, options!A:B, 2, FALSE) &amp; VLOOKUP(F58, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A58 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B58) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --transparent --no-quick "sam ple.tex" ./57/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --transparent --no-quick "in put.pdf" ./57/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="G59" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C59, options!A:B, 2, FALSE) &amp; VLOOKUP(D59, options!A:B, 2, FALSE) &amp; VLOOKUP(E59, options!A:B, 2, FALSE) &amp; VLOOKUP(F59, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A59 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B59) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --background-color CCFFCC --no-quick "sam ple.tex" ./58/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --background-color CCFFCC --no-quick "in put.pdf" ./58/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="G60" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C60, options!A:B, 2, FALSE) &amp; VLOOKUP(D60, options!A:B, 2, FALSE) &amp; VLOOKUP(E60, options!A:B, 2, FALSE) &amp; VLOOKUP(F60, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A60 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B60) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --margins 10 --unit bp --transparent --no-quick "sam ple.tex" ./59/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --margins 10 --unit bp --transparent --no-quick "in put.pdf" ./59/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="G61" s="5" t="str">
         <f>L$1 &amp; VLOOKUP(C61, options!A:B, 2, FALSE) &amp; VLOOKUP(D61, options!A:B, 2, FALSE) &amp; VLOOKUP(E61, options!A:B, 2, FALSE) &amp; VLOOKUP(F61, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A61 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B61) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick "sam ple.tex" ./60/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick "in put.pdf" ./60/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="G62" s="2" t="str">
         <f>L$1 &amp; VLOOKUP(C62, options!A:B, 2, FALSE) &amp; VLOOKUP(D62, options!A:B, 2, FALSE) &amp; VLOOKUP(E62, options!A:B, 2, FALSE) &amp; VLOOKUP(F62, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A62 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B62) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --transparent --no-quick "sam ple.tex" ./61/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --transparent --no-quick "in put.pdf" ./61/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="G63" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C63, options!A:B, 2, FALSE) &amp; VLOOKUP(D63, options!A:B, 2, FALSE) &amp; VLOOKUP(E63, options!A:B, 2, FALSE) &amp; VLOOKUP(F63, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A63 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B63) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --background-color CCFFCC --no-quick "sam ple.tex" ./62/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --background-color CCFFCC --no-quick "in put.pdf" ./62/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="G64" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C64, options!A:B, 2, FALSE) &amp; VLOOKUP(D64, options!A:B, 2, FALSE) &amp; VLOOKUP(E64, options!A:B, 2, FALSE) &amp; VLOOKUP(F64, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A64 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B64) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --no-quick "sam ple.tex" ./63/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --no-quick "in put.pdf" ./63/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="G65" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C65, options!A:B, 2, FALSE) &amp; VLOOKUP(D65, options!A:B, 2, FALSE) &amp; VLOOKUP(E65, options!A:B, 2, FALSE) &amp; VLOOKUP(F65, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A65 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B65) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick "sam ple.tex" ./64/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick "in put.pdf" ./64/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="G66" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C66, options!A:B, 2, FALSE) &amp; VLOOKUP(D66, options!A:B, 2, FALSE) &amp; VLOOKUP(E66, options!A:B, 2, FALSE) &amp; VLOOKUP(F66, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A66 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B66) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --transparent --no-quick "sam ple.tex" ./65/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --transparent --no-quick "in put.pdf" ./65/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="G67" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C67, options!A:B, 2, FALSE) &amp; VLOOKUP(D67, options!A:B, 2, FALSE) &amp; VLOOKUP(E67, options!A:B, 2, FALSE) &amp; VLOOKUP(F67, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A67 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B67) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --background-color CCFFCC --no-quick "sam ple.tex" ./66/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --background-color CCFFCC --no-quick "in put.pdf" ./66/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="G68" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C68, options!A:B, 2, FALSE) &amp; VLOOKUP(D68, options!A:B, 2, FALSE) &amp; VLOOKUP(E68, options!A:B, 2, FALSE) &amp; VLOOKUP(F68, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A68 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B68) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --transparent --no-quick "sam ple.tex" ./67/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --transparent --no-quick "in put.pdf" ./67/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="G69" s="5" t="str">
         <f>L$1 &amp; VLOOKUP(C69, options!A:B, 2, FALSE) &amp; VLOOKUP(D69, options!A:B, 2, FALSE) &amp; VLOOKUP(E69, options!A:B, 2, FALSE) &amp; VLOOKUP(F69, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A69 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B69) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --background-color CCFFCC --no-quick "sam ple.tex" ./68/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --background-color CCFFCC --no-quick "in put.pdf" ./68/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="G70" s="2" t="str">
         <f>L$1 &amp; VLOOKUP(C70, options!A:B, 2, FALSE) &amp; VLOOKUP(D70, options!A:B, 2, FALSE) &amp; VLOOKUP(E70, options!A:B, 2, FALSE) &amp; VLOOKUP(F70, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A70 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B70) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --transparent --quick "sam ple.tex" ./69/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --transparent --quick "in put.pdf" ./69/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="G71" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C71, options!A:B, 2, FALSE) &amp; VLOOKUP(D71, options!A:B, 2, FALSE) &amp; VLOOKUP(E71, options!A:B, 2, FALSE) &amp; VLOOKUP(F71, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A71 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B71) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --background-color CCFFCC --quick "sam ple.tex" ./70/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --background-color CCFFCC --quick "in put.pdf" ./70/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="G72" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C72, options!A:B, 2, FALSE) &amp; VLOOKUP(D72, options!A:B, 2, FALSE) &amp; VLOOKUP(E72, options!A:B, 2, FALSE) &amp; VLOOKUP(F72, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A72 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B72) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --quick "sam ple.tex" ./71/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --quick "in put.pdf" ./71/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="G73" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C73, options!A:B, 2, FALSE) &amp; VLOOKUP(D73, options!A:B, 2, FALSE) &amp; VLOOKUP(E73, options!A:B, 2, FALSE) &amp; VLOOKUP(F73, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A73 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B73) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick "sam ple.tex" ./72/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick "in put.pdf" ./72/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="G74" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C74, options!A:B, 2, FALSE) &amp; VLOOKUP(D74, options!A:B, 2, FALSE) &amp; VLOOKUP(E74, options!A:B, 2, FALSE) &amp; VLOOKUP(F74, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A74 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B74) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --transparent --quick "sam ple.tex" ./73/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --transparent --quick "in put.pdf" ./73/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="G75" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C75, options!A:B, 2, FALSE) &amp; VLOOKUP(D75, options!A:B, 2, FALSE) &amp; VLOOKUP(E75, options!A:B, 2, FALSE) &amp; VLOOKUP(F75, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A75 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B75) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --background-color CCFFCC --quick "sam ple.tex" ./74/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --background-color CCFFCC --quick "in put.pdf" ./74/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="G76" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C76, options!A:B, 2, FALSE) &amp; VLOOKUP(D76, options!A:B, 2, FALSE) &amp; VLOOKUP(E76, options!A:B, 2, FALSE) &amp; VLOOKUP(F76, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A76 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B76) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --margins 10 --unit bp --transparent --quick "sam ple.tex" ./75/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --margins 10 --unit bp --transparent --quick "in put.pdf" ./75/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="G77" s="5" t="str">
         <f>L$1 &amp; VLOOKUP(C77, options!A:B, 2, FALSE) &amp; VLOOKUP(D77, options!A:B, 2, FALSE) &amp; VLOOKUP(E77, options!A:B, 2, FALSE) &amp; VLOOKUP(F77, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A77 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B77) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick "sam ple.tex" ./76/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick "in put.pdf" ./76/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="G78" s="2" t="str">
         <f>L$1 &amp; VLOOKUP(C78, options!A:B, 2, FALSE) &amp; VLOOKUP(D78, options!A:B, 2, FALSE) &amp; VLOOKUP(E78, options!A:B, 2, FALSE) &amp; VLOOKUP(F78, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A78 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B78) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --transparent --quick "sam ple.tex" ./77/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --transparent --quick "in put.pdf" ./77/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="G79" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C79, options!A:B, 2, FALSE) &amp; VLOOKUP(D79, options!A:B, 2, FALSE) &amp; VLOOKUP(E79, options!A:B, 2, FALSE) &amp; VLOOKUP(F79, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A79 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B79) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --background-color CCFFCC --quick "sam ple.tex" ./78/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --background-color CCFFCC --quick "in put.pdf" ./78/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="G80" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C80, options!A:B, 2, FALSE) &amp; VLOOKUP(D80, options!A:B, 2, FALSE) &amp; VLOOKUP(E80, options!A:B, 2, FALSE) &amp; VLOOKUP(F80, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A80 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B80) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --quick "sam ple.tex" ./79/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --quick "in put.pdf" ./79/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="G81" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C81, options!A:B, 2, FALSE) &amp; VLOOKUP(D81, options!A:B, 2, FALSE) &amp; VLOOKUP(E81, options!A:B, 2, FALSE) &amp; VLOOKUP(F81, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A81 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B81) &amp; L$4</f>
-        <v>./tex2img --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick "sam ple.tex" ./80/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick "in put.pdf" ./80/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="G82" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C82, options!A:B, 2, FALSE) &amp; VLOOKUP(D82, options!A:B, 2, FALSE) &amp; VLOOKUP(E82, options!A:B, 2, FALSE) &amp; VLOOKUP(F82, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A82 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B82) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --transparent --quick "sam ple.tex" ./81/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --transparent --quick "in put.pdf" ./81/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="G83" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C83, options!A:B, 2, FALSE) &amp; VLOOKUP(D83, options!A:B, 2, FALSE) &amp; VLOOKUP(E83, options!A:B, 2, FALSE) &amp; VLOOKUP(F83, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A83 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B83) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --background-color CCFFCC --quick "sam ple.tex" ./82/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --background-color CCFFCC --quick "in put.pdf" ./82/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="G84" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C84, options!A:B, 2, FALSE) &amp; VLOOKUP(D84, options!A:B, 2, FALSE) &amp; VLOOKUP(E84, options!A:B, 2, FALSE) &amp; VLOOKUP(F84, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A84 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B84) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --transparent --quick "sam ple.tex" ./83/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --transparent --quick "in put.pdf" ./83/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="G85" s="5" t="str">
         <f>L$1 &amp; VLOOKUP(C85, options!A:B, 2, FALSE) &amp; VLOOKUP(D85, options!A:B, 2, FALSE) &amp; VLOOKUP(E85, options!A:B, 2, FALSE) &amp; VLOOKUP(F85, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A85 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B85) &amp; L$4</f>
-        <v>./tex2img --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --background-color CCFFCC --quick "sam ple.tex" ./84/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --background-color CCFFCC --quick "in put.pdf" ./84/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
   </sheetData>

--- a/te st/list.xlsx
+++ b/te st/list.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/Dropbox (株式会社東京教育研)/XcodeProjects/TeX2img/te st/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E126201-211A-9946-ACE8-27B22FA0F3B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32880" windowHeight="25400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト項目" sheetId="1" r:id="rId1"/>
     <sheet name="options" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="66">
   <si>
     <t>出力形式</t>
     <rPh sb="0" eb="4">
@@ -141,10 +147,6 @@
     <rPh sb="4" eb="6">
       <t>ケイシキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EMF</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -415,8 +417,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -864,6 +866,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1188,15 +1198,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L3" sqref="L3"/>
+      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
@@ -1211,7 +1221,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1229,16 +1239,16 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1253,7 +1263,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -1266,18 +1276,18 @@
         <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --transparent --with-text --delete-display-size "in put.pdf" ./1/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A70" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A66" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1287,7 +1297,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
@@ -1300,13 +1310,13 @@
         <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --background-color CCFFCC --with-text --delete-display-size "in put.pdf" ./2/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" t="s">
         <v>63</v>
-      </c>
-      <c r="L3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1321,7 +1331,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>2</v>
@@ -1334,13 +1344,13 @@
         <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --with-text --delete-display-size "in put.pdf" ./3/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" t="s">
         <v>55</v>
-      </c>
-      <c r="L4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1355,7 +1365,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
@@ -1368,7 +1378,7 @@
         <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --with-text --delete-display-size "in put.pdf" ./4/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1383,7 +1393,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>3</v>
@@ -1396,7 +1406,7 @@
         <v>./tex2img --resolution 6 --workingdir current --merge-output-files --transparent --with-text --delete-display-size "in put.pdf" ./5/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1411,7 +1421,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
@@ -1424,7 +1434,7 @@
         <v>./tex2img --resolution 6 --workingdir current --merge-output-files --background-color CCFFCC --with-text --delete-display-size "in put.pdf" ./6/"sam ple".pdf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1439,7 +1449,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>2</v>
@@ -1464,7 +1474,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>11</v>
@@ -1489,7 +1499,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>3</v>
@@ -1514,7 +1524,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>11</v>
@@ -1539,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>2</v>
@@ -1564,7 +1574,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>11</v>
@@ -1589,7 +1599,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1614,7 +1624,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
@@ -1639,7 +1649,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>2</v>
@@ -1664,7 +1674,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>11</v>
@@ -1689,7 +1699,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>3</v>
@@ -1714,7 +1724,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>11</v>
@@ -1739,7 +1749,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>2</v>
@@ -1764,7 +1774,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>11</v>
@@ -1789,7 +1799,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1814,7 +1824,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>11</v>
@@ -1839,7 +1849,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>2</v>
@@ -1864,7 +1874,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>11</v>
@@ -1889,13 +1899,13 @@
         <v>17</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C26, options!A:B, 2, FALSE) &amp; VLOOKUP(D26, options!A:B, 2, FALSE) &amp; VLOOKUP(E26, options!A:B, 2, FALSE) &amp; VLOOKUP(F26, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A26 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B26) &amp; L$4</f>
@@ -1915,13 +1925,13 @@
         <v>17</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C27, options!A:B, 2, FALSE) &amp; VLOOKUP(D27, options!A:B, 2, FALSE) &amp; VLOOKUP(E27, options!A:B, 2, FALSE) &amp; VLOOKUP(F27, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A27 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B27) &amp; L$4</f>
@@ -1941,13 +1951,13 @@
         <v>17</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C28, options!A:B, 2, FALSE) &amp; VLOOKUP(D28, options!A:B, 2, FALSE) &amp; VLOOKUP(E28, options!A:B, 2, FALSE) &amp; VLOOKUP(F28, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A28 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B28) &amp; L$4</f>
@@ -1967,13 +1977,13 @@
         <v>17</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" s="5" t="str">
         <f>L$1 &amp; VLOOKUP(C29, options!A:B, 2, FALSE) &amp; VLOOKUP(D29, options!A:B, 2, FALSE) &amp; VLOOKUP(E29, options!A:B, 2, FALSE) &amp; VLOOKUP(F29, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A29 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B29) &amp; L$4</f>
@@ -1994,7 +2004,7 @@
         <v/>
       </c>
       <c r="D30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>3</v>
@@ -2021,7 +2031,7 @@
         <v/>
       </c>
       <c r="D31" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>11</v>
@@ -2048,7 +2058,7 @@
         <v/>
       </c>
       <c r="D32" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>2</v>
@@ -2075,7 +2085,7 @@
         <v/>
       </c>
       <c r="D33" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>11</v>
@@ -2102,7 +2112,7 @@
         <v/>
       </c>
       <c r="D34" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>3</v>
@@ -2129,7 +2139,7 @@
         <v/>
       </c>
       <c r="D35" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>11</v>
@@ -2156,7 +2166,7 @@
         <v/>
       </c>
       <c r="D36" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>2</v>
@@ -2182,7 +2192,7 @@
         <v/>
       </c>
       <c r="D37" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>11</v>
@@ -2202,14 +2212,14 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C38" s="2" t="str">
         <f>""</f>
         <v/>
       </c>
       <c r="D38" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>3</v>
@@ -2220,7 +2230,7 @@
       </c>
       <c r="G38" s="2" t="str">
         <f>L$1 &amp; VLOOKUP(C38, options!A:B, 2, FALSE) &amp; VLOOKUP(D38, options!A:B, 2, FALSE) &amp; VLOOKUP(E38, options!A:B, 2, FALSE) &amp; VLOOKUP(F38, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A38 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B38) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --transparent "in put.pdf" ./37/"sam ple".emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --transparent "in put.pdf" ./37/"sam ple".png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2229,14 +2239,14 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C39" s="3" t="str">
         <f>""</f>
         <v/>
       </c>
       <c r="D39" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>11</v>
@@ -2247,7 +2257,7 @@
       </c>
       <c r="G39" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C39, options!A:B, 2, FALSE) &amp; VLOOKUP(D39, options!A:B, 2, FALSE) &amp; VLOOKUP(E39, options!A:B, 2, FALSE) &amp; VLOOKUP(F39, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A39 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B39) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --background-color CCFFCC "in put.pdf" ./38/"sam ple".emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --background-color CCFFCC "in put.pdf" ./38/"sam ple".png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2256,14 +2266,14 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C40" s="3" t="str">
         <f>""</f>
         <v/>
       </c>
       <c r="D40" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>2</v>
@@ -2274,7 +2284,7 @@
       </c>
       <c r="G40" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C40, options!A:B, 2, FALSE) &amp; VLOOKUP(D40, options!A:B, 2, FALSE) &amp; VLOOKUP(E40, options!A:B, 2, FALSE) &amp; VLOOKUP(F40, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A40 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B40) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp --transparent "in put.pdf" ./39/"sam ple".emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp --transparent "in put.pdf" ./39/"sam ple".png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2283,14 +2293,14 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C41" s="5" t="str">
         <f>""</f>
         <v/>
       </c>
       <c r="D41" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>11</v>
@@ -2301,7 +2311,7 @@
       </c>
       <c r="G41" s="5" t="str">
         <f>L$1 &amp; VLOOKUP(C41, options!A:B, 2, FALSE) &amp; VLOOKUP(D41, options!A:B, 2, FALSE) &amp; VLOOKUP(E41, options!A:B, 2, FALSE) &amp; VLOOKUP(F41, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A41 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B41) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp --background-color CCFFCC "in put.pdf" ./40/"sam ple".emf; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp --background-color CCFFCC "in put.pdf" ./40/"sam ple".png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2310,17 +2320,17 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2" t="str">
         <f>""</f>
         <v/>
       </c>
       <c r="D42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="F42" s="2" t="str">
         <f>""</f>
@@ -2328,7 +2338,7 @@
       </c>
       <c r="G42" s="2" t="str">
         <f>L$1 &amp; VLOOKUP(C42, options!A:B, 2, FALSE) &amp; VLOOKUP(D42, options!A:B, 2, FALSE) &amp; VLOOKUP(E42, options!A:B, 2, FALSE) &amp; VLOOKUP(F42, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A42 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B42) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --transparent "in put.pdf" ./41/"sam ple".png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current "in put.pdf" ./41/"sam ple".jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2337,14 +2347,14 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C43" s="3" t="str">
         <f>""</f>
         <v/>
       </c>
       <c r="D43" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>11</v>
@@ -2355,7 +2365,7 @@
       </c>
       <c r="G43" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C43, options!A:B, 2, FALSE) &amp; VLOOKUP(D43, options!A:B, 2, FALSE) &amp; VLOOKUP(E43, options!A:B, 2, FALSE) &amp; VLOOKUP(F43, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A43 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B43) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --background-color CCFFCC "in put.pdf" ./42/"sam ple".png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --background-color CCFFCC "in put.pdf" ./42/"sam ple".jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2364,17 +2374,17 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C44" s="3" t="str">
         <f>""</f>
         <v/>
       </c>
       <c r="D44" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F44" s="3" t="str">
         <f>""</f>
@@ -2382,7 +2392,7 @@
       </c>
       <c r="G44" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C44, options!A:B, 2, FALSE) &amp; VLOOKUP(D44, options!A:B, 2, FALSE) &amp; VLOOKUP(E44, options!A:B, 2, FALSE) &amp; VLOOKUP(F44, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A44 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B44) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp --transparent "in put.pdf" ./43/"sam ple".png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp "in put.pdf" ./43/"sam ple".jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2391,16 +2401,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C45" s="5" t="str">
         <f>""</f>
         <v/>
       </c>
       <c r="D45" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="5" t="str">
@@ -2409,7 +2419,7 @@
       </c>
       <c r="G45" s="5" t="str">
         <f>L$1 &amp; VLOOKUP(C45, options!A:B, 2, FALSE) &amp; VLOOKUP(D45, options!A:B, 2, FALSE) &amp; VLOOKUP(E45, options!A:B, 2, FALSE) &amp; VLOOKUP(F45, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A45 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B45) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp --background-color CCFFCC "in put.pdf" ./44/"sam ple".png; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp --background-color CCFFCC "in put.pdf" ./44/"sam ple".jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2418,17 +2428,17 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C46" s="2" t="str">
         <f>""</f>
         <v/>
       </c>
       <c r="D46" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F46" s="2" t="str">
         <f>""</f>
@@ -2436,7 +2446,7 @@
       </c>
       <c r="G46" s="2" t="str">
         <f>L$1 &amp; VLOOKUP(C46, options!A:B, 2, FALSE) &amp; VLOOKUP(D46, options!A:B, 2, FALSE) &amp; VLOOKUP(E46, options!A:B, 2, FALSE) &amp; VLOOKUP(F46, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A46 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B46) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current "in put.pdf" ./45/"sam ple".jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current "in put.pdf" ./45/"sam ple".bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2445,14 +2455,14 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C47" s="3" t="str">
         <f>""</f>
         <v/>
       </c>
       <c r="D47" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>11</v>
@@ -2463,7 +2473,7 @@
       </c>
       <c r="G47" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C47, options!A:B, 2, FALSE) &amp; VLOOKUP(D47, options!A:B, 2, FALSE) &amp; VLOOKUP(E47, options!A:B, 2, FALSE) &amp; VLOOKUP(F47, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A47 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B47) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --background-color CCFFCC "in put.pdf" ./46/"sam ple".jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --background-color CCFFCC "in put.pdf" ./46/"sam ple".bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2472,17 +2482,17 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C48" s="3" t="str">
         <f>""</f>
         <v/>
       </c>
       <c r="D48" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F48" s="3" t="str">
         <f>""</f>
@@ -2490,7 +2500,7 @@
       </c>
       <c r="G48" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C48, options!A:B, 2, FALSE) &amp; VLOOKUP(D48, options!A:B, 2, FALSE) &amp; VLOOKUP(E48, options!A:B, 2, FALSE) &amp; VLOOKUP(F48, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A48 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B48) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp "in put.pdf" ./47/"sam ple".jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp "in put.pdf" ./47/"sam ple".bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2499,14 +2509,14 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C49" s="5" t="str">
         <f>""</f>
         <v/>
       </c>
       <c r="D49" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>11</v>
@@ -2517,7 +2527,7 @@
       </c>
       <c r="G49" s="5" t="str">
         <f>L$1 &amp; VLOOKUP(C49, options!A:B, 2, FALSE) &amp; VLOOKUP(D49, options!A:B, 2, FALSE) &amp; VLOOKUP(E49, options!A:B, 2, FALSE) &amp; VLOOKUP(F49, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A49 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B49) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp --background-color CCFFCC "in put.pdf" ./48/"sam ple".jpg; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp --background-color CCFFCC "in put.pdf" ./48/"sam ple".bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2526,25 +2536,23 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="2" t="str">
-        <f>""</f>
-        <v/>
+        <v>6</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="2" t="str">
-        <f>""</f>
-        <v/>
+        <v>29</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G50" s="2" t="str">
         <f>L$1 &amp; VLOOKUP(C50, options!A:B, 2, FALSE) &amp; VLOOKUP(D50, options!A:B, 2, FALSE) &amp; VLOOKUP(E50, options!A:B, 2, FALSE) &amp; VLOOKUP(F50, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A50 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B50) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current "in put.pdf" ./49/"sam ple".bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --transparent --no-quick "in put.pdf" ./49/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2553,25 +2561,23 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="3" t="str">
-        <f>""</f>
-        <v/>
+        <v>6</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="3" t="str">
-        <f>""</f>
-        <v/>
+      <c r="F51" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G51" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C51, options!A:B, 2, FALSE) &amp; VLOOKUP(D51, options!A:B, 2, FALSE) &amp; VLOOKUP(E51, options!A:B, 2, FALSE) &amp; VLOOKUP(F51, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A51 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B51) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --background-color CCFFCC "in put.pdf" ./50/"sam ple".bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --background-color CCFFCC --no-quick "in put.pdf" ./50/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2580,52 +2586,48 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="3" t="str">
-        <f>""</f>
-        <v/>
+        <v>6</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="3" t="str">
-        <f>""</f>
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G52" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C52, options!A:B, 2, FALSE) &amp; VLOOKUP(D52, options!A:B, 2, FALSE) &amp; VLOOKUP(E52, options!A:B, 2, FALSE) &amp; VLOOKUP(F52, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A52 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B52) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp "in put.pdf" ./51/"sam ple".bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --no-quick "in put.pdf" ./51/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="5">
+      <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="5" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="5" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-      <c r="G53" s="5" t="str">
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C53, options!A:B, 2, FALSE) &amp; VLOOKUP(D53, options!A:B, 2, FALSE) &amp; VLOOKUP(E53, options!A:B, 2, FALSE) &amp; VLOOKUP(F53, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A53 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B53) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --margins 10 --unit bp --background-color CCFFCC "in put.pdf" ./52/"sam ple".bmp; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick "in put.pdf" ./52/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2633,24 +2635,24 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="C54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" s="2" t="str">
+      <c r="F54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C54, options!A:B, 2, FALSE) &amp; VLOOKUP(D54, options!A:B, 2, FALSE) &amp; VLOOKUP(E54, options!A:B, 2, FALSE) &amp; VLOOKUP(F54, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A54 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B54) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --transparent --no-quick "in put.pdf" ./53/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --transparent --no-quick "in put.pdf" ./53/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2662,20 +2664,20 @@
         <v>6</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G55" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C55, options!A:B, 2, FALSE) &amp; VLOOKUP(D55, options!A:B, 2, FALSE) &amp; VLOOKUP(E55, options!A:B, 2, FALSE) &amp; VLOOKUP(F55, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A55 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B55) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --background-color CCFFCC --no-quick "in put.pdf" ./54/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --background-color CCFFCC --no-quick "in put.pdf" ./54/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2687,45 +2689,45 @@
         <v>6</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G56" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C56, options!A:B, 2, FALSE) &amp; VLOOKUP(D56, options!A:B, 2, FALSE) &amp; VLOOKUP(E56, options!A:B, 2, FALSE) &amp; VLOOKUP(F56, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A56 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B56) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --no-quick "in put.pdf" ./55/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --margins 10 --unit bp --transparent --no-quick "in put.pdf" ./55/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="3">
+      <c r="A57" s="5">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" s="3" t="str">
+      <c r="C57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="5" t="str">
         <f>L$1 &amp; VLOOKUP(C57, options!A:B, 2, FALSE) &amp; VLOOKUP(D57, options!A:B, 2, FALSE) &amp; VLOOKUP(E57, options!A:B, 2, FALSE) &amp; VLOOKUP(F57, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A57 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B57) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick "in put.pdf" ./56/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick "in put.pdf" ./56/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2733,24 +2735,24 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="B58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" s="3" t="str">
+      <c r="F58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="2" t="str">
         <f>L$1 &amp; VLOOKUP(C58, options!A:B, 2, FALSE) &amp; VLOOKUP(D58, options!A:B, 2, FALSE) &amp; VLOOKUP(E58, options!A:B, 2, FALSE) &amp; VLOOKUP(F58, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A58 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B58) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --transparent --no-quick "in put.pdf" ./57/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --transparent --no-quick "in put.pdf" ./57/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2759,23 +2761,23 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G59" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C59, options!A:B, 2, FALSE) &amp; VLOOKUP(D59, options!A:B, 2, FALSE) &amp; VLOOKUP(E59, options!A:B, 2, FALSE) &amp; VLOOKUP(F59, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A59 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B59) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --background-color CCFFCC --no-quick "in put.pdf" ./58/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --background-color CCFFCC --no-quick "in put.pdf" ./58/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2784,48 +2786,48 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G60" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C60, options!A:B, 2, FALSE) &amp; VLOOKUP(D60, options!A:B, 2, FALSE) &amp; VLOOKUP(E60, options!A:B, 2, FALSE) &amp; VLOOKUP(F60, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A60 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B60) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --margins 10 --unit bp --transparent --no-quick "in put.pdf" ./59/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --no-quick "in put.pdf" ./59/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="5">
+      <c r="A61" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" s="5" t="str">
+      <c r="B61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C61, options!A:B, 2, FALSE) &amp; VLOOKUP(D61, options!A:B, 2, FALSE) &amp; VLOOKUP(E61, options!A:B, 2, FALSE) &amp; VLOOKUP(F61, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A61 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B61) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick "in put.pdf" ./60/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick "in put.pdf" ./60/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2833,24 +2835,24 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E62" s="2" t="s">
+      <c r="D62" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" s="2" t="str">
+      <c r="F62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C62, options!A:B, 2, FALSE) &amp; VLOOKUP(D62, options!A:B, 2, FALSE) &amp; VLOOKUP(E62, options!A:B, 2, FALSE) &amp; VLOOKUP(F62, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A62 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B62) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --transparent --no-quick "in put.pdf" ./61/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --transparent --no-quick "in put.pdf" ./61/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2859,23 +2861,23 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D63" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G63" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C63, options!A:B, 2, FALSE) &amp; VLOOKUP(D63, options!A:B, 2, FALSE) &amp; VLOOKUP(E63, options!A:B, 2, FALSE) &amp; VLOOKUP(F63, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A63 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B63) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --background-color CCFFCC --no-quick "in put.pdf" ./62/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --background-color CCFFCC --no-quick "in put.pdf" ./62/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2884,48 +2886,48 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D64" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G64" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C64, options!A:B, 2, FALSE) &amp; VLOOKUP(D64, options!A:B, 2, FALSE) &amp; VLOOKUP(E64, options!A:B, 2, FALSE) &amp; VLOOKUP(F64, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A64 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B64) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --no-quick "in put.pdf" ./63/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --transparent --no-quick "in put.pdf" ./63/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="3">
+      <c r="A65" s="5">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" s="3" t="str">
+      <c r="D65" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="5" t="str">
         <f>L$1 &amp; VLOOKUP(C65, options!A:B, 2, FALSE) &amp; VLOOKUP(D65, options!A:B, 2, FALSE) &amp; VLOOKUP(E65, options!A:B, 2, FALSE) &amp; VLOOKUP(F65, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A65 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B65) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --no-quick "in put.pdf" ./64/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --background-color CCFFCC --no-quick "in put.pdf" ./64/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2933,39 +2935,39 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E66" s="3" t="s">
+      <c r="B66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G66" s="3" t="str">
+      <c r="G66" s="2" t="str">
         <f>L$1 &amp; VLOOKUP(C66, options!A:B, 2, FALSE) &amp; VLOOKUP(D66, options!A:B, 2, FALSE) &amp; VLOOKUP(E66, options!A:B, 2, FALSE) &amp; VLOOKUP(F66, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A66 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B66) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --transparent --no-quick "in put.pdf" ./65/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --transparent --quick "in put.pdf" ./65/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A67:A81" si="1">ROW()-1</f>
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>11</v>
@@ -2975,22 +2977,22 @@
       </c>
       <c r="G67" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C67, options!A:B, 2, FALSE) &amp; VLOOKUP(D67, options!A:B, 2, FALSE) &amp; VLOOKUP(E67, options!A:B, 2, FALSE) &amp; VLOOKUP(F67, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A67 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B67) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --background-color CCFFCC --no-quick "in put.pdf" ./66/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --background-color CCFFCC --quick "in put.pdf" ./66/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>2</v>
@@ -3000,82 +3002,82 @@
       </c>
       <c r="G68" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C68, options!A:B, 2, FALSE) &amp; VLOOKUP(D68, options!A:B, 2, FALSE) &amp; VLOOKUP(E68, options!A:B, 2, FALSE) &amp; VLOOKUP(F68, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A68 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B68) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --transparent --no-quick "in put.pdf" ./67/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --quick "in put.pdf" ./67/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="5">
-        <f t="shared" si="0"/>
+      <c r="A69" s="3">
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="5" t="s">
+      <c r="B69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G69" s="5" t="str">
+      <c r="G69" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C69, options!A:B, 2, FALSE) &amp; VLOOKUP(D69, options!A:B, 2, FALSE) &amp; VLOOKUP(E69, options!A:B, 2, FALSE) &amp; VLOOKUP(F69, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A69 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B69) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --background-color CCFFCC --no-quick "in put.pdf" ./68/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick "in put.pdf" ./68/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E70" s="2" t="s">
+      <c r="C70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" s="2" t="str">
+      <c r="F70" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C70, options!A:B, 2, FALSE) &amp; VLOOKUP(D70, options!A:B, 2, FALSE) &amp; VLOOKUP(E70, options!A:B, 2, FALSE) &amp; VLOOKUP(F70, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A70 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B70) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --transparent --quick "in put.pdf" ./69/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --transparent --quick "in put.pdf" ./69/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3">
-        <f t="shared" ref="A71:A85" si="1">ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G71" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C71, options!A:B, 2, FALSE) &amp; VLOOKUP(D71, options!A:B, 2, FALSE) &amp; VLOOKUP(E71, options!A:B, 2, FALSE) &amp; VLOOKUP(F71, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A71 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B71) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --background-color CCFFCC --quick "in put.pdf" ./70/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --background-color CCFFCC --quick "in put.pdf" ./70/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3087,45 +3089,45 @@
         <v>6</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G72" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C72, options!A:B, 2, FALSE) &amp; VLOOKUP(D72, options!A:B, 2, FALSE) &amp; VLOOKUP(E72, options!A:B, 2, FALSE) &amp; VLOOKUP(F72, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A72 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B72) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --quick "in put.pdf" ./71/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --margins 10 --unit bp --transparent --quick "in put.pdf" ./71/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="3">
+      <c r="A73" s="5">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" s="3" t="str">
+      <c r="C73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="5" t="str">
         <f>L$1 &amp; VLOOKUP(C73, options!A:B, 2, FALSE) &amp; VLOOKUP(D73, options!A:B, 2, FALSE) &amp; VLOOKUP(E73, options!A:B, 2, FALSE) &amp; VLOOKUP(F73, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A73 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B73) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick "in put.pdf" ./72/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick "in put.pdf" ./72/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3133,24 +3135,24 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E74" s="3" t="s">
+      <c r="B74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" s="3" t="str">
+      <c r="F74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" s="2" t="str">
         <f>L$1 &amp; VLOOKUP(C74, options!A:B, 2, FALSE) &amp; VLOOKUP(D74, options!A:B, 2, FALSE) &amp; VLOOKUP(E74, options!A:B, 2, FALSE) &amp; VLOOKUP(F74, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A74 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B74) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --transparent --quick "in put.pdf" ./73/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --transparent --quick "in put.pdf" ./73/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3159,23 +3161,23 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G75" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C75, options!A:B, 2, FALSE) &amp; VLOOKUP(D75, options!A:B, 2, FALSE) &amp; VLOOKUP(E75, options!A:B, 2, FALSE) &amp; VLOOKUP(F75, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A75 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B75) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --background-color CCFFCC --quick "in put.pdf" ./74/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --background-color CCFFCC --quick "in put.pdf" ./74/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3184,48 +3186,48 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G76" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C76, options!A:B, 2, FALSE) &amp; VLOOKUP(D76, options!A:B, 2, FALSE) &amp; VLOOKUP(E76, options!A:B, 2, FALSE) &amp; VLOOKUP(F76, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A76 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B76) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --margins 10 --unit bp --transparent --quick "in put.pdf" ./75/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --quick "in put.pdf" ./75/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="5">
+      <c r="A77" s="3">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="5" t="str">
+      <c r="B77" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C77, options!A:B, 2, FALSE) &amp; VLOOKUP(D77, options!A:B, 2, FALSE) &amp; VLOOKUP(E77, options!A:B, 2, FALSE) &amp; VLOOKUP(F77, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A77 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B77) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick "in put.pdf" ./76/"sam ple".tiff; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick "in put.pdf" ./76/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3233,24 +3235,24 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E78" s="2" t="s">
+      <c r="D78" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" s="2" t="str">
+      <c r="F78" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C78, options!A:B, 2, FALSE) &amp; VLOOKUP(D78, options!A:B, 2, FALSE) &amp; VLOOKUP(E78, options!A:B, 2, FALSE) &amp; VLOOKUP(F78, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A78 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B78) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --transparent --quick "in put.pdf" ./77/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --transparent --quick "in put.pdf" ./77/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3259,23 +3261,23 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D79" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G79" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C79, options!A:B, 2, FALSE) &amp; VLOOKUP(D79, options!A:B, 2, FALSE) &amp; VLOOKUP(E79, options!A:B, 2, FALSE) &amp; VLOOKUP(F79, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A79 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B79) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --background-color CCFFCC --quick "in put.pdf" ./78/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --background-color CCFFCC --quick "in put.pdf" ./78/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3284,148 +3286,48 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D80" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G80" s="3" t="str">
         <f>L$1 &amp; VLOOKUP(C80, options!A:B, 2, FALSE) &amp; VLOOKUP(D80, options!A:B, 2, FALSE) &amp; VLOOKUP(E80, options!A:B, 2, FALSE) &amp; VLOOKUP(F80, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A80 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B80) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --transparent --quick "in put.pdf" ./79/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --transparent --quick "in put.pdf" ./79/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="3">
+      <c r="A81" s="5">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" s="3" t="str">
+      <c r="D81" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" s="5" t="str">
         <f>L$1 &amp; VLOOKUP(C81, options!A:B, 2, FALSE) &amp; VLOOKUP(D81, options!A:B, 2, FALSE) &amp; VLOOKUP(E81, options!A:B, 2, FALSE) &amp; VLOOKUP(F81, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A81 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B81) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --no-merge-output-files --margins 10 --unit bp --background-color CCFFCC --quick "in put.pdf" ./80/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="3">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" s="3" t="str">
-        <f>L$1 &amp; VLOOKUP(C82, options!A:B, 2, FALSE) &amp; VLOOKUP(D82, options!A:B, 2, FALSE) &amp; VLOOKUP(E82, options!A:B, 2, FALSE) &amp; VLOOKUP(F82, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A82 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B82) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --transparent --quick "in put.pdf" ./81/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="3">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" s="3" t="str">
-        <f>L$1 &amp; VLOOKUP(C83, options!A:B, 2, FALSE) &amp; VLOOKUP(D83, options!A:B, 2, FALSE) &amp; VLOOKUP(E83, options!A:B, 2, FALSE) &amp; VLOOKUP(F83, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A83 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B83) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --background-color CCFFCC --quick "in put.pdf" ./82/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="3">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" s="3" t="str">
-        <f>L$1 &amp; VLOOKUP(C84, options!A:B, 2, FALSE) &amp; VLOOKUP(D84, options!A:B, 2, FALSE) &amp; VLOOKUP(E84, options!A:B, 2, FALSE) &amp; VLOOKUP(F84, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A84 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B84) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --transparent --quick "in put.pdf" ./83/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="5">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" s="5" t="str">
-        <f>L$1 &amp; VLOOKUP(C85, options!A:B, 2, FALSE) &amp; VLOOKUP(D85, options!A:B, 2, FALSE) &amp; VLOOKUP(E85, options!A:B, 2, FALSE) &amp; VLOOKUP(F85, options!A:B, 2, FALSE) &amp; L$2 &amp; " ./" &amp; A85 &amp; "/" &amp; L$3 &amp;"." &amp; LOWER(B85) &amp; L$4</f>
-        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --background-color CCFFCC --quick "in put.pdf" ./84/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
+        <v>./tex2img --resolution 6 --workingdir current --merge-output-files --animation-delay 0.5 --animation-loop 0 --margins 10 --unit bp --background-color CCFFCC --quick "in put.pdf" ./80/"sam ple".gif; if [ $? -ne 0 ]; then echo "ERROR!"; exit 1; fi</v>
       </c>
     </row>
   </sheetData>
@@ -3441,14 +3343,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="12.625" style="8"/>
     <col min="2" max="2" width="46.625" style="8" bestFit="1" customWidth="1"/>
@@ -3457,10 +3359,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3468,7 +3370,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3476,7 +3378,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3484,7 +3386,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3492,7 +3394,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3500,7 +3402,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3508,7 +3410,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3516,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3524,49 +3426,49 @@
         <v>11</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2">
